--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>fileId</t>
   </si>
@@ -98,12 +98,6 @@
     <t>o__310065364</t>
   </si>
   <si>
-    <t>UIWindowPrefab</t>
-  </si>
-  <si>
-    <t>o_1237780500</t>
-  </si>
-  <si>
     <t>xLuaScript.lua</t>
   </si>
   <si>
@@ -125,7 +119,7 @@
     <t>.prefab</t>
   </si>
   <si>
-    <t>s__1144593552_refdep</t>
+    <t>o__2041122048</t>
   </si>
   <si>
     <t>SpriteA</t>
@@ -443,6 +437,12 @@
     <t>SkillShape_Sector</t>
   </si>
   <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>sp_1381309303</t>
+  </si>
+  <si>
     <t>hero_show_attack</t>
   </si>
   <si>
@@ -752,19 +752,13 @@
     <t>ExampleGuideWindow</t>
   </si>
   <si>
-    <t>o_1083931819</t>
+    <t>s_1283098805_refdep</t>
   </si>
   <si>
     <t>ExampleHeroListWindow</t>
   </si>
   <si>
-    <t>o_1766871015</t>
-  </si>
-  <si>
     <t>ExampleLobbyWindow</t>
-  </si>
-  <si>
-    <t>s_1283098805_refdep</t>
   </si>
   <si>
     <t>ExampleMessageBoxWindow</t>
@@ -1348,10 +1342,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1367067612</v>
+        <v>1930332635</v>
       </c>
       <c r="B6" s="3">
-        <v>-1848215035</v>
+        <v>-217314462</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -1368,56 +1362,56 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>1930332635</v>
+        <v>1435839211</v>
       </c>
       <c r="B7" s="3">
-        <v>-217314462</v>
+        <v>833541447</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>1435839211</v>
+        <v>801223849</v>
       </c>
       <c r="B8" s="3">
-        <v>833541447</v>
+        <v>-54790966</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>801223849</v>
+        <v>-1156656118</v>
       </c>
       <c r="B9" s="3">
-        <v>-54790966</v>
+        <v>-564773012</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1428,7 +1422,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-1156656118</v>
+        <v>-1156689749</v>
       </c>
       <c r="B10" s="3">
         <v>-564773012</v>
@@ -1437,7 +1431,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>32</v>
@@ -1448,16 +1442,16 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-1156689749</v>
+        <v>1379737790</v>
       </c>
       <c r="B11" s="3">
-        <v>-564773012</v>
+        <v>-138886169</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>34</v>
@@ -1468,7 +1462,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>1379737790</v>
+        <v>1379771421</v>
       </c>
       <c r="B12" s="3">
         <v>-138886169</v>
@@ -1477,7 +1471,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>36</v>
@@ -1488,7 +1482,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>1379771421</v>
+        <v>1379526652</v>
       </c>
       <c r="B13" s="3">
         <v>-138886169</v>
@@ -1497,7 +1491,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>38</v>
@@ -1508,7 +1502,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>1379526652</v>
+        <v>-317450972</v>
       </c>
       <c r="B14" s="3">
         <v>-138886169</v>
@@ -1517,7 +1511,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>40</v>
@@ -1528,7 +1522,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>-317450972</v>
+        <v>-1438158203</v>
       </c>
       <c r="B15" s="3">
         <v>-138886169</v>
@@ -1537,7 +1531,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>42</v>
@@ -1548,7 +1542,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-1438158203</v>
+        <v>-1946758154</v>
       </c>
       <c r="B16" s="3">
         <v>-138886169</v>
@@ -1557,7 +1551,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>44</v>
@@ -1568,7 +1562,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>-1946758154</v>
+        <v>-177756055</v>
       </c>
       <c r="B17" s="3">
         <v>-138886169</v>
@@ -1577,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>46</v>
@@ -1588,7 +1582,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-177756055</v>
+        <v>2004023454</v>
       </c>
       <c r="B18" s="3">
         <v>-138886169</v>
@@ -1597,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>48</v>
@@ -1608,7 +1602,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>2004023454</v>
+        <v>2004124859</v>
       </c>
       <c r="B19" s="3">
         <v>-138886169</v>
@@ -1617,7 +1611,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>50</v>
@@ -1628,7 +1622,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>2004124859</v>
+        <v>-177544917</v>
       </c>
       <c r="B20" s="3">
         <v>-138886169</v>
@@ -1637,7 +1631,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>52</v>
@@ -1648,36 +1642,36 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-177544917</v>
+        <v>1161092058</v>
       </c>
       <c r="B21" s="3">
-        <v>-138886169</v>
+        <v>-604696863</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>1161092058</v>
+        <v>534469369</v>
       </c>
       <c r="B22" s="3">
         <v>-604696863</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>57</v>
@@ -1688,7 +1682,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>534469369</v>
+        <v>-686428000</v>
       </c>
       <c r="B23" s="3">
         <v>-604696863</v>
@@ -1697,7 +1691,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>59</v>
@@ -1708,7 +1702,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-686428000</v>
+        <v>-971500035</v>
       </c>
       <c r="B24" s="3">
         <v>-604696863</v>
@@ -1717,7 +1711,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>61</v>
@@ -1728,7 +1722,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>-971500035</v>
+        <v>1020262985</v>
       </c>
       <c r="B25" s="3">
         <v>-604696863</v>
@@ -1737,7 +1731,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>63</v>
@@ -1748,7 +1742,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1020262985</v>
+        <v>640045995</v>
       </c>
       <c r="B26" s="3">
         <v>-604696863</v>
@@ -1757,7 +1751,7 @@
         <v>64</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>65</v>
@@ -1768,7 +1762,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>640045995</v>
+        <v>-189806610</v>
       </c>
       <c r="B27" s="3">
         <v>-604696863</v>
@@ -1777,7 +1771,7 @@
         <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>67</v>
@@ -1788,7 +1782,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-189806610</v>
+        <v>-1145710254</v>
       </c>
       <c r="B28" s="3">
         <v>-604696863</v>
@@ -1797,7 +1791,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>69</v>
@@ -1808,7 +1802,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-1145710254</v>
+        <v>1200342331</v>
       </c>
       <c r="B29" s="3">
         <v>-604696863</v>
@@ -1817,7 +1811,7 @@
         <v>70</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>71</v>
@@ -1828,7 +1822,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>1200342331</v>
+        <v>-1041502226</v>
       </c>
       <c r="B30" s="3">
         <v>-604696863</v>
@@ -1837,7 +1831,7 @@
         <v>72</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>73</v>
@@ -1848,7 +1842,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>-1041502226</v>
+        <v>-199355911</v>
       </c>
       <c r="B31" s="3">
         <v>-604696863</v>
@@ -1857,7 +1851,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>75</v>
@@ -1868,7 +1862,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>-199355911</v>
+        <v>-697780410</v>
       </c>
       <c r="B32" s="3">
         <v>-604696863</v>
@@ -1877,7 +1871,7 @@
         <v>76</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>77</v>
@@ -1888,7 +1882,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>-697780410</v>
+        <v>708626965</v>
       </c>
       <c r="B33" s="3">
         <v>-604696863</v>
@@ -1897,7 +1891,7 @@
         <v>78</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>79</v>
@@ -1908,36 +1902,36 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>708626965</v>
+        <v>258133027</v>
       </c>
       <c r="B34" s="3">
-        <v>-604696863</v>
+        <v>-709248962</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>258133027</v>
+        <v>258127654</v>
       </c>
       <c r="B35" s="3">
         <v>-709248962</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>84</v>
@@ -1948,7 +1942,7 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>258127654</v>
+        <v>258126629</v>
       </c>
       <c r="B36" s="3">
         <v>-709248962</v>
@@ -1957,7 +1951,7 @@
         <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>86</v>
@@ -1968,7 +1962,7 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>258126629</v>
+        <v>356929728</v>
       </c>
       <c r="B37" s="3">
         <v>-709248962</v>
@@ -1977,7 +1971,7 @@
         <v>87</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>88</v>
@@ -1988,16 +1982,16 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>356929728</v>
+        <v>131035578</v>
       </c>
       <c r="B38" s="3">
-        <v>-709248962</v>
+        <v>-1306576225</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>90</v>
@@ -2008,19 +2002,19 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>131035578</v>
+        <v>1798115627</v>
       </c>
       <c r="B39" s="3">
-        <v>-1306576225</v>
+        <v>2077842219</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -2028,16 +2022,16 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>1798115627</v>
+        <v>1467879321</v>
       </c>
       <c r="B40" s="3">
-        <v>2077842219</v>
+        <v>-321661972</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>95</v>
@@ -2048,16 +2042,16 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>1467879321</v>
+        <v>1100204808</v>
       </c>
       <c r="B41" s="3">
-        <v>-321661972</v>
+        <v>1818256112</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>97</v>
@@ -2068,7 +2062,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>1100204808</v>
+        <v>1223084798</v>
       </c>
       <c r="B42" s="3">
         <v>1818256112</v>
@@ -2077,10 +2071,10 @@
         <v>98</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2088,19 +2082,19 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>1223084798</v>
+        <v>1182875468</v>
       </c>
       <c r="B43" s="3">
         <v>1818256112</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2108,19 +2102,19 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>1182875468</v>
+        <v>-1702961178</v>
       </c>
       <c r="B44" s="3">
         <v>1818256112</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2128,19 +2122,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>-1702961178</v>
+        <v>97773808</v>
       </c>
       <c r="B45" s="3">
         <v>1818256112</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2148,19 +2142,19 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>97773808</v>
+        <v>782400400</v>
       </c>
       <c r="B46" s="3">
         <v>1818256112</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2168,19 +2162,19 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>782400400</v>
+        <v>-1346459162</v>
       </c>
       <c r="B47" s="3">
         <v>1818256112</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2188,19 +2182,19 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>-1346459162</v>
+        <v>1695948152</v>
       </c>
       <c r="B48" s="3">
         <v>1818256112</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2208,19 +2202,19 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>1695948152</v>
+        <v>-1117414580</v>
       </c>
       <c r="B49" s="3">
         <v>1818256112</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2228,19 +2222,19 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>-1117414580</v>
+        <v>-438892770</v>
       </c>
       <c r="B50" s="3">
         <v>1818256112</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2248,19 +2242,19 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-438892770</v>
+        <v>-623397646</v>
       </c>
       <c r="B51" s="3">
         <v>1818256112</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2268,19 +2262,19 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>-623397646</v>
+        <v>1900173452</v>
       </c>
       <c r="B52" s="3">
         <v>1818256112</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2288,19 +2282,19 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>1900173452</v>
+        <v>1914480745</v>
       </c>
       <c r="B53" s="3">
         <v>1818256112</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2308,19 +2302,19 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>1914480745</v>
+        <v>1186398616</v>
       </c>
       <c r="B54" s="3">
         <v>1818256112</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2328,19 +2322,19 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>1186398616</v>
+        <v>-2026839501</v>
       </c>
       <c r="B55" s="3">
         <v>1818256112</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2348,19 +2342,19 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>-2026839501</v>
+        <v>-1652404422</v>
       </c>
       <c r="B56" s="3">
         <v>1818256112</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2368,19 +2362,19 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>-1652404422</v>
+        <v>-118978920</v>
       </c>
       <c r="B57" s="3">
         <v>1818256112</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2388,19 +2382,19 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>-118978920</v>
+        <v>-437890570</v>
       </c>
       <c r="B58" s="3">
         <v>1818256112</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2408,19 +2402,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>-437890570</v>
+        <v>1899218305</v>
       </c>
       <c r="B59" s="3">
         <v>1818256112</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2428,19 +2422,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>1899218305</v>
+        <v>1277018396</v>
       </c>
       <c r="B60" s="3">
         <v>1818256112</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2448,19 +2442,19 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>1277018396</v>
+        <v>-2074537620</v>
       </c>
       <c r="B61" s="3">
         <v>1818256112</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2468,19 +2462,19 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>-2074537620</v>
+        <v>-212196520</v>
       </c>
       <c r="B62" s="3">
         <v>1818256112</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2488,19 +2482,19 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>-212196520</v>
+        <v>1808967807</v>
       </c>
       <c r="B63" s="3">
         <v>1818256112</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2508,19 +2502,19 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>1808967807</v>
+        <v>19901444</v>
       </c>
       <c r="B64" s="3">
         <v>1818256112</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2528,19 +2522,19 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>19901444</v>
+        <v>907743543</v>
       </c>
       <c r="B65" s="3">
         <v>1818256112</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2548,19 +2542,19 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>907743543</v>
+        <v>-1913048551</v>
       </c>
       <c r="B66" s="3">
         <v>1818256112</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2568,19 +2562,19 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>-1913048551</v>
+        <v>-1076143552</v>
       </c>
       <c r="B67" s="3">
         <v>1818256112</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2588,19 +2582,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>-1076143552</v>
+        <v>1802534463</v>
       </c>
       <c r="B68" s="3">
         <v>1818256112</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2608,19 +2602,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>1802534463</v>
+        <v>-1935905474</v>
       </c>
       <c r="B69" s="3">
         <v>1818256112</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2628,19 +2622,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>-1935905474</v>
+        <v>-939641839</v>
       </c>
       <c r="B70" s="3">
         <v>1818256112</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2648,19 +2642,19 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>-939641839</v>
+        <v>1605040461</v>
       </c>
       <c r="B71" s="3">
         <v>1818256112</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2668,19 +2662,19 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>1605040461</v>
+        <v>1864079938</v>
       </c>
       <c r="B72" s="3">
         <v>1818256112</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2688,19 +2682,19 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>1864079938</v>
+        <v>-397812777</v>
       </c>
       <c r="B73" s="3">
         <v>1818256112</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2708,19 +2702,19 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>-397812777</v>
+        <v>764015412</v>
       </c>
       <c r="B74" s="3">
-        <v>1818256112</v>
+        <v>1491052087</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2728,7 +2722,7 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>764015412</v>
+        <v>957664066</v>
       </c>
       <c r="B75" s="3">
         <v>1491052087</v>
@@ -2737,10 +2731,10 @@
         <v>132</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2748,19 +2742,19 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>957664066</v>
+        <v>718574578</v>
       </c>
       <c r="B76" s="3">
         <v>1491052087</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2768,19 +2762,19 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>718574578</v>
+        <v>421558678</v>
       </c>
       <c r="B77" s="3">
-        <v>1491052087</v>
+        <v>-1795478394</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2797,7 +2791,7 @@
         <v>136</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>137</v>
@@ -2817,7 +2811,7 @@
         <v>138</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>137</v>
@@ -2837,7 +2831,7 @@
         <v>139</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>137</v>
@@ -2857,7 +2851,7 @@
         <v>140</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>137</v>
@@ -2877,7 +2871,7 @@
         <v>141</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>137</v>
@@ -2897,7 +2891,7 @@
         <v>142</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>137</v>
@@ -2917,7 +2911,7 @@
         <v>143</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>137</v>
@@ -2937,7 +2931,7 @@
         <v>144</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>137</v>
@@ -2957,7 +2951,7 @@
         <v>145</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>137</v>
@@ -2977,7 +2971,7 @@
         <v>146</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>137</v>
@@ -2997,7 +2991,7 @@
         <v>147</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>137</v>
@@ -3017,7 +3011,7 @@
         <v>148</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>137</v>
@@ -3037,7 +3031,7 @@
         <v>149</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>137</v>
@@ -3057,7 +3051,7 @@
         <v>150</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>151</v>
@@ -3077,7 +3071,7 @@
         <v>152</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>151</v>
@@ -3097,7 +3091,7 @@
         <v>153</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>151</v>
@@ -3117,7 +3111,7 @@
         <v>154</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>155</v>
@@ -3137,7 +3131,7 @@
         <v>156</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>155</v>
@@ -3157,7 +3151,7 @@
         <v>157</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>155</v>
@@ -3177,7 +3171,7 @@
         <v>158</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>155</v>
@@ -3197,7 +3191,7 @@
         <v>159</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>155</v>
@@ -3217,7 +3211,7 @@
         <v>160</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>155</v>
@@ -3237,7 +3231,7 @@
         <v>161</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>155</v>
@@ -3257,7 +3251,7 @@
         <v>162</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>155</v>
@@ -3277,7 +3271,7 @@
         <v>163</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>155</v>
@@ -3297,7 +3291,7 @@
         <v>164</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>155</v>
@@ -3317,7 +3311,7 @@
         <v>165</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>155</v>
@@ -3337,7 +3331,7 @@
         <v>166</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>155</v>
@@ -3357,7 +3351,7 @@
         <v>167</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>155</v>
@@ -3377,7 +3371,7 @@
         <v>168</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>155</v>
@@ -3397,7 +3391,7 @@
         <v>169</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>155</v>
@@ -3417,7 +3411,7 @@
         <v>170</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>155</v>
@@ -3437,7 +3431,7 @@
         <v>171</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>155</v>
@@ -3457,7 +3451,7 @@
         <v>172</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>155</v>
@@ -3477,7 +3471,7 @@
         <v>173</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>155</v>
@@ -3497,7 +3491,7 @@
         <v>174</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>155</v>
@@ -3517,7 +3511,7 @@
         <v>175</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>176</v>
@@ -3537,7 +3531,7 @@
         <v>177</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>176</v>
@@ -3557,7 +3551,7 @@
         <v>178</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>176</v>
@@ -3577,7 +3571,7 @@
         <v>179</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>180</v>
@@ -3597,7 +3591,7 @@
         <v>181</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>180</v>
@@ -3617,7 +3611,7 @@
         <v>182</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>180</v>
@@ -3637,7 +3631,7 @@
         <v>183</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>184</v>
@@ -3657,7 +3651,7 @@
         <v>185</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>184</v>
@@ -3677,7 +3671,7 @@
         <v>186</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>184</v>
@@ -3697,7 +3691,7 @@
         <v>187</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>184</v>
@@ -3717,7 +3711,7 @@
         <v>188</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>184</v>
@@ -3737,7 +3731,7 @@
         <v>189</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>184</v>
@@ -3757,7 +3751,7 @@
         <v>190</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>184</v>
@@ -3777,7 +3771,7 @@
         <v>191</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>184</v>
@@ -3797,7 +3791,7 @@
         <v>192</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>184</v>
@@ -3817,7 +3811,7 @@
         <v>193</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>184</v>
@@ -3837,7 +3831,7 @@
         <v>194</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>184</v>
@@ -3857,7 +3851,7 @@
         <v>195</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>184</v>
@@ -3877,7 +3871,7 @@
         <v>196</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>184</v>
@@ -3897,7 +3891,7 @@
         <v>197</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>184</v>
@@ -3917,7 +3911,7 @@
         <v>198</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>184</v>
@@ -3937,7 +3931,7 @@
         <v>199</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>184</v>
@@ -3957,7 +3951,7 @@
         <v>200</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>184</v>
@@ -3977,7 +3971,7 @@
         <v>201</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>184</v>
@@ -3997,7 +3991,7 @@
         <v>202</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>184</v>
@@ -4017,7 +4011,7 @@
         <v>203</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>184</v>
@@ -4037,7 +4031,7 @@
         <v>204</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>184</v>
@@ -4057,7 +4051,7 @@
         <v>205</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>184</v>
@@ -4077,7 +4071,7 @@
         <v>206</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>184</v>
@@ -4097,7 +4091,7 @@
         <v>207</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>184</v>
@@ -4117,7 +4111,7 @@
         <v>208</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>184</v>
@@ -4137,7 +4131,7 @@
         <v>209</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>184</v>
@@ -4157,7 +4151,7 @@
         <v>210</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>184</v>
@@ -4177,7 +4171,7 @@
         <v>211</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>184</v>
@@ -4197,7 +4191,7 @@
         <v>212</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>184</v>
@@ -4217,7 +4211,7 @@
         <v>213</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>184</v>
@@ -4237,7 +4231,7 @@
         <v>214</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>184</v>
@@ -4257,7 +4251,7 @@
         <v>215</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>184</v>
@@ -4277,7 +4271,7 @@
         <v>216</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>184</v>
@@ -4297,7 +4291,7 @@
         <v>217</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>184</v>
@@ -4317,7 +4311,7 @@
         <v>218</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>184</v>
@@ -4337,7 +4331,7 @@
         <v>219</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>220</v>
@@ -4357,7 +4351,7 @@
         <v>221</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>220</v>
@@ -4377,7 +4371,7 @@
         <v>222</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>220</v>
@@ -4397,7 +4391,7 @@
         <v>223</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>220</v>
@@ -4417,7 +4411,7 @@
         <v>224</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>220</v>
@@ -4437,7 +4431,7 @@
         <v>225</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>220</v>
@@ -4457,7 +4451,7 @@
         <v>226</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>227</v>
@@ -4477,7 +4471,7 @@
         <v>228</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>227</v>
@@ -4497,7 +4491,7 @@
         <v>229</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>227</v>
@@ -4517,7 +4511,7 @@
         <v>230</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>227</v>
@@ -4537,7 +4531,7 @@
         <v>231</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>227</v>
@@ -4557,7 +4551,7 @@
         <v>232</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>227</v>
@@ -4577,7 +4571,7 @@
         <v>233</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>234</v>
@@ -4617,7 +4611,7 @@
         <v>235</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>237</v>
@@ -4637,7 +4631,7 @@
         <v>238</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>239</v>
@@ -4657,10 +4651,10 @@
         <v>240</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F171" s="3">
         <v>15</v>
@@ -4674,13 +4668,13 @@
         <v>-981518740</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F172" s="3">
         <v>15</v>
@@ -4694,13 +4688,13 @@
         <v>679003640</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F173" s="3">
         <v>15</v>
@@ -4714,13 +4708,13 @@
         <v>-392477947</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F174" s="3">
         <v>15</v>
@@ -4734,13 +4728,13 @@
         <v>764955609</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F175" s="3">
         <v>26</v>
@@ -4754,13 +4748,13 @@
         <v>764955609</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F176" s="3">
         <v>26</v>
@@ -4774,13 +4768,13 @@
         <v>764955609</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F177" s="3">
         <v>26</v>
@@ -4794,13 +4788,13 @@
         <v>-887612720</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F178" s="3">
         <v>26</v>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -86,7 +86,7 @@
     <t>.mat</t>
   </si>
   <si>
-    <t>o_197227879</t>
+    <t>o_804079274</t>
   </si>
   <si>
     <t>SpriteAtlas</t>
@@ -95,13 +95,13 @@
     <t>.txt</t>
   </si>
   <si>
-    <t>o__310065364</t>
+    <t>o__1952074993</t>
   </si>
   <si>
     <t>xLuaScript.lua</t>
   </si>
   <si>
-    <t>x__722044736</t>
+    <t>x_726493122</t>
   </si>
   <si>
     <t>FZY4JW_0</t>
@@ -110,7 +110,7 @@
     <t>.TTF</t>
   </si>
   <si>
-    <t>o_1044801315</t>
+    <t>o_1740741083</t>
   </si>
   <si>
     <t>pf_hero_1002</t>
@@ -119,79 +119,79 @@
     <t>.prefab</t>
   </si>
   <si>
-    <t>o__2041122048</t>
+    <t>o__403062850</t>
   </si>
   <si>
     <t>SpriteA</t>
   </si>
   <si>
-    <t>o_1474594549</t>
+    <t>o_728513591</t>
   </si>
   <si>
     <t>SpriteB</t>
   </si>
   <si>
-    <t>o_965994598</t>
+    <t>o_1449048355</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_01</t>
   </si>
   <si>
-    <t>o__1378509602</t>
+    <t>o_772797634</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_02</t>
   </si>
   <si>
-    <t>o__1378475971</t>
+    <t>o__1580348835</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_03</t>
   </si>
   <si>
-    <t>o__1378720740</t>
+    <t>o_916662210</t>
   </si>
   <si>
     <t>fx_hero_1002_die</t>
   </si>
   <si>
-    <t>o_1383879220</t>
+    <t>o_1417665199</t>
   </si>
   <si>
     <t>fx_hero_1002_Hit_a</t>
   </si>
   <si>
-    <t>o__1813955979</t>
+    <t>o_987507523</t>
   </si>
   <si>
     <t>fx_hero_1002_Hit_b</t>
   </si>
   <si>
-    <t>o_1972411366</t>
+    <t>o_372291149</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_01</t>
   </si>
   <si>
-    <t>o_336125009</t>
+    <t>o_836104149</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_02_a</t>
   </si>
   <si>
-    <t>o__1020849986</t>
+    <t>o_997145031</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_02_b</t>
   </si>
   <si>
-    <t>o__1020748581</t>
+    <t>o__1881727088</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_03</t>
   </si>
   <si>
-    <t>o_336336147</t>
+    <t>o_2010935313</t>
   </si>
   <si>
     <t>Examplebx_map_pve_1</t>
@@ -200,79 +200,79 @@
     <t>.unity</t>
   </si>
   <si>
-    <t>s_950724038</t>
+    <t>s_1998193365</t>
   </si>
   <si>
     <t>ExampleCinemachine</t>
   </si>
   <si>
-    <t>s__1291135245</t>
+    <t>s_161994958</t>
   </si>
   <si>
     <t>ExampleEntityComponentSystem</t>
   </si>
   <si>
-    <t>s__1144593552</t>
+    <t>s_2102381656</t>
   </si>
   <si>
     <t>ExampleEventHandler</t>
   </si>
   <si>
-    <t>s__516459733</t>
+    <t>s_3404451</t>
   </si>
   <si>
     <t>ExampleFMS</t>
   </si>
   <si>
-    <t>s_1918424455</t>
+    <t>s_857707986</t>
   </si>
   <si>
     <t>ExampleGuide</t>
   </si>
   <si>
-    <t>s_1283098805</t>
+    <t>s__2009239190</t>
   </si>
   <si>
     <t>ExampleProject</t>
   </si>
   <si>
-    <t>s__673823202</t>
+    <t>s__1574957563</t>
   </si>
   <si>
     <t>ExampleSkill</t>
   </si>
   <si>
-    <t>s__1013884030</t>
+    <t>s_1062889003</t>
   </si>
   <si>
     <t>ExampleSQLite</t>
   </si>
   <si>
-    <t>s_1905240525</t>
+    <t>s_1626608088</t>
   </si>
   <si>
     <t>ExampleTerrain</t>
   </si>
   <si>
-    <t>s_1800783742</t>
+    <t>s__1407783059</t>
   </si>
   <si>
     <t>ExampleUIWindow</t>
   </si>
   <si>
-    <t>s_712230731</t>
+    <t>s__48687258</t>
   </si>
   <si>
     <t>ExampleXLS</t>
   </si>
   <si>
-    <t>s__1053711742</t>
+    <t>s__1088948561</t>
   </si>
   <si>
     <t>ExampleXLua</t>
   </si>
   <si>
-    <t>s_1347262715</t>
+    <t>s__1355360791</t>
   </si>
   <si>
     <t>chgPowerCircle1</t>
@@ -281,31 +281,31 @@
     <t>.png</t>
   </si>
   <si>
-    <t>o_2140629704</t>
+    <t>o_1735064929</t>
   </si>
   <si>
     <t>chgPowerCircle2</t>
   </si>
   <si>
-    <t>o_1412547575</t>
+    <t>o_312776746</t>
   </si>
   <si>
     <t>chgPowerCircle3</t>
   </si>
   <si>
-    <t>o_71831303</t>
+    <t>o_1653263674</t>
   </si>
   <si>
     <t>effect_hero_foot</t>
   </si>
   <si>
-    <t>o__976662983</t>
+    <t>o_283329097</t>
   </si>
   <si>
     <t>ugui_loading</t>
   </si>
   <si>
-    <t>o_21136258</t>
+    <t>o__1336611924</t>
   </si>
   <si>
     <t>LobbyBackground</t>
@@ -314,19 +314,19 @@
     <t>.jpg</t>
   </si>
   <si>
-    <t>o__1967246217</t>
+    <t>o__1697330953</t>
   </si>
   <si>
     <t>ugui_login</t>
   </si>
   <si>
-    <t>o__680664596</t>
+    <t>o_1351797518</t>
   </si>
   <si>
     <t>battle_camp_blue</t>
   </si>
   <si>
-    <t>sp_1938100083</t>
+    <t>sp__1643345598</t>
   </si>
   <si>
     <t>battle_camp_purple</t>
@@ -428,7 +428,7 @@
     <t>SkillShape_Circle</t>
   </si>
   <si>
-    <t>sp__1914656521</t>
+    <t>sp_2144060812</t>
   </si>
   <si>
     <t>SkillShape_Line</t>
@@ -440,13 +440,13 @@
     <t>control</t>
   </si>
   <si>
-    <t>sp_1381309303</t>
+    <t>sp__1076193732</t>
   </si>
   <si>
     <t>hero_show_attack</t>
   </si>
   <si>
-    <t>sp_1203424015</t>
+    <t>sp_1103995528</t>
   </si>
   <si>
     <t>hero_show_back</t>
@@ -488,7 +488,7 @@
     <t>loading_item</t>
   </si>
   <si>
-    <t>sp_174399255</t>
+    <t>sp_371046582</t>
   </si>
   <si>
     <t>loading_other</t>
@@ -500,7 +500,7 @@
     <t>lobby_achieve</t>
   </si>
   <si>
-    <t>sp_154700343</t>
+    <t>sp_493391422</t>
   </si>
   <si>
     <t>lobby_activity</t>
@@ -563,7 +563,7 @@
     <t>login_btn_login</t>
   </si>
   <si>
-    <t>sp__771861865</t>
+    <t>sp_83733784</t>
   </si>
   <si>
     <t>login_dian</t>
@@ -575,7 +575,7 @@
     <t>match_job</t>
   </si>
   <si>
-    <t>sp__1330209705</t>
+    <t>sp_438571766</t>
   </si>
   <si>
     <t>match_player</t>
@@ -587,7 +587,7 @@
     <t>share_add</t>
   </si>
   <si>
-    <t>sp_1372312023</t>
+    <t>sp_1960007041</t>
   </si>
   <si>
     <t>share_bg</t>
@@ -695,7 +695,7 @@
     <t>shop_item_bg</t>
   </si>
   <si>
-    <t>sp__1609825461</t>
+    <t>sp_758489486</t>
   </si>
   <si>
     <t>shop_other1</t>
@@ -716,7 +716,7 @@
     <t>Skill100204</t>
   </si>
   <si>
-    <t>sp_997746071</t>
+    <t>sp_267983427</t>
   </si>
   <si>
     <t>Skill100205</t>
@@ -737,7 +737,7 @@
     <t>Terrain</t>
   </si>
   <si>
-    <t>o_1446354034</t>
+    <t>o_1026750565</t>
   </si>
   <si>
     <t>ExampleCinemachine_DollyCartTimeline</t>
@@ -746,13 +746,13 @@
     <t>.playable</t>
   </si>
   <si>
-    <t>s__1291135245_refdep</t>
+    <t>s_161994958_refdep</t>
   </si>
   <si>
     <t>ExampleGuideWindow</t>
   </si>
   <si>
-    <t>s_1283098805_refdep</t>
+    <t>s__2009239190_refdep</t>
   </si>
   <si>
     <t>ExampleHeroListWindow</t>
@@ -767,13 +767,13 @@
     <t>ExamplePlayerListWindow</t>
   </si>
   <si>
-    <t>s_712230731_refdep</t>
+    <t>s__48687258_refdep</t>
   </si>
   <si>
     <t>ExampleTestXLuaLevelCube.lua</t>
   </si>
   <si>
-    <t>x__652273228</t>
+    <t>x_356206060</t>
   </si>
   <si>
     <t>ExampleXLuaLevel.lua</t>
@@ -785,7 +785,7 @@
     <t>ExampleHeroListWindow.lua</t>
   </si>
   <si>
-    <t>x__1140577710</t>
+    <t>x_1452682579</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-1388105411</v>
+        <v>1030043145</v>
       </c>
       <c r="B4" s="3">
-        <v>-407640863</v>
+        <v>2130076485</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1787210896</v>
+        <v>-1047153048</v>
       </c>
       <c r="B5" s="3">
-        <v>-690277213</v>
+        <v>1148303718</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>1930332635</v>
+        <v>-1314513662</v>
       </c>
       <c r="B6" s="3">
-        <v>-217314462</v>
+        <v>-764457537</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>1435839211</v>
+        <v>-671828977</v>
       </c>
       <c r="B7" s="3">
-        <v>833541447</v>
+        <v>703074975</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>801223849</v>
+        <v>-1822338762</v>
       </c>
       <c r="B8" s="3">
-        <v>-54790966</v>
+        <v>-2004506147</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -1402,10 +1402,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-1156656118</v>
+        <v>2069627225</v>
       </c>
       <c r="B9" s="3">
-        <v>-564773012</v>
+        <v>1536776472</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-1156689749</v>
+        <v>-639390330</v>
       </c>
       <c r="B10" s="3">
-        <v>-564773012</v>
+        <v>1536776472</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>31</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>1379737790</v>
+        <v>-247032076</v>
       </c>
       <c r="B11" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>1379771421</v>
+        <v>-914683150</v>
       </c>
       <c r="B12" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>1379526652</v>
+        <v>1469057108</v>
       </c>
       <c r="B13" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>37</v>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-317450972</v>
+        <v>563263933</v>
       </c>
       <c r="B14" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>39</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>-1438158203</v>
+        <v>-1640052790</v>
       </c>
       <c r="B15" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>41</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-1946758154</v>
+        <v>334986352</v>
       </c>
       <c r="B16" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>-177756055</v>
+        <v>1656382229</v>
       </c>
       <c r="B17" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>45</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>2004023454</v>
+        <v>1191492675</v>
       </c>
       <c r="B18" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>47</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>2004124859</v>
+        <v>2125675024</v>
       </c>
       <c r="B19" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>49</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-177544917</v>
+        <v>-1961533316</v>
       </c>
       <c r="B20" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>51</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>1161092058</v>
+        <v>-1860432654</v>
       </c>
       <c r="B21" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>53</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>534469369</v>
+        <v>-935725446</v>
       </c>
       <c r="B22" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>56</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>-686428000</v>
+        <v>1652309691</v>
       </c>
       <c r="B23" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>58</v>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-971500035</v>
+        <v>1305370276</v>
       </c>
       <c r="B24" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>60</v>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1020262985</v>
+        <v>1784042025</v>
       </c>
       <c r="B25" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>62</v>
@@ -1742,10 +1742,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>640045995</v>
+        <v>-692579849</v>
       </c>
       <c r="B26" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>64</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-189806610</v>
+        <v>1479034210</v>
       </c>
       <c r="B27" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-1145710254</v>
+        <v>-1608441305</v>
       </c>
       <c r="B28" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>1200342331</v>
+        <v>2073847480</v>
       </c>
       <c r="B29" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>70</v>
@@ -1822,10 +1822,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>-1041502226</v>
+        <v>1229683040</v>
       </c>
       <c r="B30" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>72</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>-199355911</v>
+        <v>1889580147</v>
       </c>
       <c r="B31" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>74</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>-697780410</v>
+        <v>698208992</v>
       </c>
       <c r="B32" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>76</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>708626965</v>
+        <v>1741707445</v>
       </c>
       <c r="B33" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>78</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>258133027</v>
+        <v>1334679678</v>
       </c>
       <c r="B34" s="3">
-        <v>-709248962</v>
+        <v>-1405308702</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>80</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>258127654</v>
+        <v>203780964</v>
       </c>
       <c r="B35" s="3">
-        <v>-709248962</v>
+        <v>-1405308702</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>83</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>258126629</v>
+        <v>904144584</v>
       </c>
       <c r="B36" s="3">
-        <v>-709248962</v>
+        <v>-1405308702</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>85</v>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>356929728</v>
+        <v>-1147649747</v>
       </c>
       <c r="B37" s="3">
-        <v>-709248962</v>
+        <v>-1405308702</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>87</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>131035578</v>
+        <v>1649820611</v>
       </c>
       <c r="B38" s="3">
-        <v>-1306576225</v>
+        <v>-1408754900</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>89</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>1798115627</v>
+        <v>1784757519</v>
       </c>
       <c r="B39" s="3">
-        <v>2077842219</v>
+        <v>1311652878</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>91</v>
@@ -2022,10 +2022,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>1467879321</v>
+        <v>41156671</v>
       </c>
       <c r="B40" s="3">
-        <v>-321661972</v>
+        <v>853849619</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>94</v>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>1100204808</v>
+        <v>433278951</v>
       </c>
       <c r="B41" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>96</v>
@@ -2062,10 +2062,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>1223084798</v>
+        <v>1887145564</v>
       </c>
       <c r="B42" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>98</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>1182875468</v>
+        <v>797307857</v>
       </c>
       <c r="B43" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>99</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>-1702961178</v>
+        <v>-337981905</v>
       </c>
       <c r="B44" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>100</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>97773808</v>
+        <v>153670792</v>
       </c>
       <c r="B45" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>101</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>782400400</v>
+        <v>-1564951367</v>
       </c>
       <c r="B46" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>102</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>-1346459162</v>
+        <v>-59478781</v>
       </c>
       <c r="B47" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>103</v>
@@ -2182,10 +2182,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>1695948152</v>
+        <v>-171116364</v>
       </c>
       <c r="B48" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>104</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>-1117414580</v>
+        <v>1358693645</v>
       </c>
       <c r="B49" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>105</v>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>-438892770</v>
+        <v>-789027443</v>
       </c>
       <c r="B50" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>106</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-623397646</v>
+        <v>-521246146</v>
       </c>
       <c r="B51" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>107</v>
@@ -2262,10 +2262,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>1900173452</v>
+        <v>-866621371</v>
       </c>
       <c r="B52" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>108</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>1914480745</v>
+        <v>-1202190585</v>
       </c>
       <c r="B53" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>109</v>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>1186398616</v>
+        <v>-697777798</v>
       </c>
       <c r="B54" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>110</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>-2026839501</v>
+        <v>-822758644</v>
       </c>
       <c r="B55" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>111</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>-1652404422</v>
+        <v>-683937367</v>
       </c>
       <c r="B56" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>112</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>-118978920</v>
+        <v>1656373698</v>
       </c>
       <c r="B57" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>113</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>-437890570</v>
+        <v>-1576961177</v>
       </c>
       <c r="B58" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>114</v>
@@ -2402,10 +2402,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>1899218305</v>
+        <v>1210637086</v>
       </c>
       <c r="B59" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>115</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>1277018396</v>
+        <v>1015097087</v>
       </c>
       <c r="B60" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>116</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>-2074537620</v>
+        <v>-1179819934</v>
       </c>
       <c r="B61" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>117</v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>-212196520</v>
+        <v>887404725</v>
       </c>
       <c r="B62" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>118</v>
@@ -2482,10 +2482,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>1808967807</v>
+        <v>1668790150</v>
       </c>
       <c r="B63" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>119</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>19901444</v>
+        <v>2000159984</v>
       </c>
       <c r="B64" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>120</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>907743543</v>
+        <v>-828125338</v>
       </c>
       <c r="B65" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>121</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>-1913048551</v>
+        <v>-2000734508</v>
       </c>
       <c r="B66" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>122</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>-1076143552</v>
+        <v>-2120242522</v>
       </c>
       <c r="B67" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>123</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>1802534463</v>
+        <v>801904891</v>
       </c>
       <c r="B68" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>124</v>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>-1935905474</v>
+        <v>-1470467503</v>
       </c>
       <c r="B69" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>125</v>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>-939641839</v>
+        <v>337104583</v>
       </c>
       <c r="B70" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>126</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>1605040461</v>
+        <v>2090923639</v>
       </c>
       <c r="B71" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>127</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>1864079938</v>
+        <v>-963389618</v>
       </c>
       <c r="B72" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>128</v>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>-397812777</v>
+        <v>-873179829</v>
       </c>
       <c r="B73" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>129</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>764015412</v>
+        <v>-116491982</v>
       </c>
       <c r="B74" s="3">
-        <v>1491052087</v>
+        <v>-143016780</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>130</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>957664066</v>
+        <v>-1735360998</v>
       </c>
       <c r="B75" s="3">
-        <v>1491052087</v>
+        <v>-143016780</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>132</v>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>718574578</v>
+        <v>1223135529</v>
       </c>
       <c r="B76" s="3">
-        <v>1491052087</v>
+        <v>-143016780</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>133</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>421558678</v>
+        <v>-1900676780</v>
       </c>
       <c r="B77" s="3">
-        <v>-1795478394</v>
+        <v>-228276413</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>134</v>
@@ -2782,10 +2782,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>-1881786878</v>
+        <v>-2078450133</v>
       </c>
       <c r="B78" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>136</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>1415271091</v>
+        <v>-1710946484</v>
       </c>
       <c r="B79" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>138</v>
@@ -2822,10 +2822,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-629659239</v>
+        <v>-957768232</v>
       </c>
       <c r="B80" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>139</v>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>1898245226</v>
+        <v>-2034364172</v>
       </c>
       <c r="B81" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>140</v>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>2118264085</v>
+        <v>-853281810</v>
       </c>
       <c r="B82" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>141</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>872946844</v>
+        <v>-1945931504</v>
       </c>
       <c r="B83" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>142</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>-236214166</v>
+        <v>-500020199</v>
       </c>
       <c r="B84" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>143</v>
@@ -2922,10 +2922,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>2102956663</v>
+        <v>1757638406</v>
       </c>
       <c r="B85" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>144</v>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>-1400768882</v>
+        <v>1988261967</v>
       </c>
       <c r="B86" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>145</v>
@@ -2962,10 +2962,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>-153403847</v>
+        <v>-995549749</v>
       </c>
       <c r="B87" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>146</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>1648923419</v>
+        <v>-2065132448</v>
       </c>
       <c r="B88" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>147</v>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>207538391</v>
+        <v>-469814560</v>
       </c>
       <c r="B89" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>148</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>764266871</v>
+        <v>-1709480205</v>
       </c>
       <c r="B90" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>149</v>
@@ -3042,10 +3042,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>2146751871</v>
+        <v>140739289</v>
       </c>
       <c r="B91" s="3">
-        <v>-1842992926</v>
+        <v>-1099268540</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>150</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>1466697674</v>
+        <v>-1608487925</v>
       </c>
       <c r="B92" s="3">
-        <v>-1842992926</v>
+        <v>-1099268540</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>152</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>-2051287461</v>
+        <v>2105748090</v>
       </c>
       <c r="B93" s="3">
-        <v>-1842992926</v>
+        <v>-1099268540</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>153</v>
@@ -3102,10 +3102,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>1874789539</v>
+        <v>789221405</v>
       </c>
       <c r="B94" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>154</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>-84787065</v>
+        <v>1216959907</v>
       </c>
       <c r="B95" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>156</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>690423251</v>
+        <v>-476086870</v>
       </c>
       <c r="B96" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>157</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>-2041446612</v>
+        <v>-838689769</v>
       </c>
       <c r="B97" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>158</v>
@@ -3182,10 +3182,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>-1203758685</v>
+        <v>-1802325708</v>
       </c>
       <c r="B98" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>159</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>-410230546</v>
+        <v>1989727680</v>
       </c>
       <c r="B99" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>160</v>
@@ -3222,10 +3222,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>-556076432</v>
+        <v>-1939875048</v>
       </c>
       <c r="B100" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>161</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>578388114</v>
+        <v>-1464485623</v>
       </c>
       <c r="B101" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>162</v>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-2098015814</v>
+        <v>-1951531947</v>
       </c>
       <c r="B102" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>163</v>
@@ -3282,10 +3282,10 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-1777889193</v>
+        <v>-1046567820</v>
       </c>
       <c r="B103" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>164</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>-1432576793</v>
+        <v>1068522423</v>
       </c>
       <c r="B104" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>165</v>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>1218267872</v>
+        <v>-300423134</v>
       </c>
       <c r="B105" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>166</v>
@@ -3342,10 +3342,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>1978496365</v>
+        <v>1006821704</v>
       </c>
       <c r="B106" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>167</v>
@@ -3362,10 +3362,10 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>-1542274896</v>
+        <v>-807058300</v>
       </c>
       <c r="B107" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>168</v>
@@ -3382,10 +3382,10 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>-1542280269</v>
+        <v>861913762</v>
       </c>
       <c r="B108" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>169</v>
@@ -3402,10 +3402,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>-860403005</v>
+        <v>-754517366</v>
       </c>
       <c r="B109" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>170</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>1540956799</v>
+        <v>130754166</v>
       </c>
       <c r="B110" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>171</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>1466141184</v>
+        <v>125947051</v>
       </c>
       <c r="B111" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>172</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>1583315381</v>
+        <v>-1770038881</v>
       </c>
       <c r="B112" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>173</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-1389171130</v>
+        <v>-619684109</v>
       </c>
       <c r="B113" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>174</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>904284787</v>
+        <v>1129969276</v>
       </c>
       <c r="B114" s="3">
-        <v>281039821</v>
+        <v>1006479116</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>175</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>811715649</v>
+        <v>2087578356</v>
       </c>
       <c r="B115" s="3">
-        <v>281039821</v>
+        <v>1006479116</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>177</v>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>588507670</v>
+        <v>-1682130970</v>
       </c>
       <c r="B116" s="3">
-        <v>281039821</v>
+        <v>1006479116</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>178</v>
@@ -3562,10 +3562,10 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>-487499842</v>
+        <v>-1517097132</v>
       </c>
       <c r="B117" s="3">
-        <v>1242333133</v>
+        <v>851451727</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>179</v>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>2054057256</v>
+        <v>-1065385250</v>
       </c>
       <c r="B118" s="3">
-        <v>1242333133</v>
+        <v>851451727</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>181</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>1643416934</v>
+        <v>1033151513</v>
       </c>
       <c r="B119" s="3">
-        <v>1242333133</v>
+        <v>851451727</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>182</v>
@@ -3622,10 +3622,10 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>759021524</v>
+        <v>-2058283314</v>
       </c>
       <c r="B120" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>183</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>1188991776</v>
+        <v>2029688188</v>
       </c>
       <c r="B121" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>185</v>
@@ -3662,10 +3662,10 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>-1485492935</v>
+        <v>-1469368861</v>
       </c>
       <c r="B122" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>186</v>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>-1485493960</v>
+        <v>-683434627</v>
       </c>
       <c r="B123" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>187</v>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>-1485486537</v>
+        <v>1967723194</v>
       </c>
       <c r="B124" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>188</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>-926931866</v>
+        <v>1396964412</v>
       </c>
       <c r="B125" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>189</v>
@@ -3742,10 +3742,10 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>-2051314105</v>
+        <v>1716523581</v>
       </c>
       <c r="B126" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>190</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>1533017876</v>
+        <v>1121214035</v>
       </c>
       <c r="B127" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>191</v>
@@ -3782,10 +3782,10 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>1533018901</v>
+        <v>1691528606</v>
       </c>
       <c r="B128" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>192</v>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>120417479</v>
+        <v>-390587125</v>
       </c>
       <c r="B129" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>193</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-1850748379</v>
+        <v>1704422050</v>
       </c>
       <c r="B130" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>194</v>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>-1086921391</v>
+        <v>-1536911730</v>
       </c>
       <c r="B131" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>195</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>-674355388</v>
+        <v>413905320</v>
       </c>
       <c r="B132" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>196</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>-386948456</v>
+        <v>-48817825</v>
       </c>
       <c r="B133" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>197</v>
@@ -3902,10 +3902,10 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-2130123077</v>
+        <v>-959482885</v>
       </c>
       <c r="B134" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>198</v>
@@ -3922,10 +3922,10 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>1202505943</v>
+        <v>2073649712</v>
       </c>
       <c r="B135" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>199</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>932878309</v>
+        <v>1029219947</v>
       </c>
       <c r="B136" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>200</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>-1594240518</v>
+        <v>-1791028253</v>
       </c>
       <c r="B137" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>201</v>
@@ -3982,10 +3982,10 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>-866158389</v>
+        <v>-278736850</v>
       </c>
       <c r="B138" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>202</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>-1947887568</v>
+        <v>64477520</v>
       </c>
       <c r="B139" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>203</v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>-1815085823</v>
+        <v>1525107119</v>
       </c>
       <c r="B140" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>204</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>-1293236513</v>
+        <v>1894508942</v>
       </c>
       <c r="B141" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>205</v>
@@ -4062,10 +4062,10 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>-740414262</v>
+        <v>786946575</v>
       </c>
       <c r="B142" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>206</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>-1609963338</v>
+        <v>1743712584</v>
       </c>
       <c r="B143" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>207</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>553588775</v>
+        <v>-1666523598</v>
       </c>
       <c r="B144" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>208</v>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>583205902</v>
+        <v>-209439764</v>
       </c>
       <c r="B145" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>209</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-608772870</v>
+        <v>-1975734379</v>
       </c>
       <c r="B146" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>210</v>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-1987898859</v>
+        <v>1273481327</v>
       </c>
       <c r="B147" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>211</v>
@@ -4182,10 +4182,10 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>909548793</v>
+        <v>785293368</v>
       </c>
       <c r="B148" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>212</v>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>-175566618</v>
+        <v>-594615111</v>
       </c>
       <c r="B149" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>213</v>
@@ -4222,10 +4222,10 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>-1623541089</v>
+        <v>-509427602</v>
       </c>
       <c r="B150" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>214</v>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>1642216903</v>
+        <v>-522008429</v>
       </c>
       <c r="B151" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>215</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>296312644</v>
+        <v>1223491875</v>
       </c>
       <c r="B152" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>216</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>726731315</v>
+        <v>1068025648</v>
       </c>
       <c r="B153" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>217</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>677679944</v>
+        <v>-1281428191</v>
       </c>
       <c r="B154" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>218</v>
@@ -4322,10 +4322,10 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>-1230692653</v>
+        <v>559760484</v>
       </c>
       <c r="B155" s="3">
-        <v>1794619554</v>
+        <v>779000644</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>219</v>
@@ -4342,10 +4342,10 @@
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>-1762747783</v>
+        <v>1147450703</v>
       </c>
       <c r="B156" s="3">
-        <v>1794619554</v>
+        <v>779000644</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>221</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>-1762746758</v>
+        <v>-555765293</v>
       </c>
       <c r="B157" s="3">
-        <v>1794619554</v>
+        <v>779000644</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>222</v>
@@ -4382,10 +4382,10 @@
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>-1762745733</v>
+        <v>-1008309707</v>
       </c>
       <c r="B158" s="3">
-        <v>1794619554</v>
+        <v>779000644</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>223</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>-1762753156</v>
+        <v>1649328148</v>
       </c>
       <c r="B159" s="3">
-        <v>1794619554</v>
+        <v>779000644</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>224</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="160">
       <c r="A160" s="3">
-        <v>-1762752131</v>
+        <v>1483365187</v>
       </c>
       <c r="B160" s="3">
-        <v>1794619554</v>
+        <v>779000644</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>225</v>
@@ -4442,10 +4442,10 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>2138332369</v>
+        <v>488959337</v>
       </c>
       <c r="B161" s="3">
-        <v>-1043141469</v>
+        <v>1205799434</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>226</v>
@@ -4462,10 +4462,10 @@
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>2138333394</v>
+        <v>-258823006</v>
       </c>
       <c r="B162" s="3">
-        <v>-1043141469</v>
+        <v>1205799434</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>228</v>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>2138338767</v>
+        <v>-877025943</v>
       </c>
       <c r="B163" s="3">
-        <v>-1043141469</v>
+        <v>1205799434</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>229</v>
@@ -4502,10 +4502,10 @@
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>2138539155</v>
+        <v>-1928104510</v>
       </c>
       <c r="B164" s="3">
-        <v>-1043141469</v>
+        <v>1205799434</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>230</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>2138540180</v>
+        <v>233779722</v>
       </c>
       <c r="B165" s="3">
-        <v>-1043141469</v>
+        <v>1205799434</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>231</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="166">
       <c r="A166" s="3">
-        <v>2138541205</v>
+        <v>575019724</v>
       </c>
       <c r="B166" s="3">
-        <v>-1043141469</v>
+        <v>1205799434</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>232</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>1070431175</v>
+        <v>-1924748440</v>
       </c>
       <c r="B167" s="3">
-        <v>1555904384</v>
+        <v>1993197872</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>233</v>
@@ -4582,10 +4582,10 @@
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>1430999372</v>
+        <v>1203732579</v>
       </c>
       <c r="B168" s="3">
-        <v>-1762047952</v>
+        <v>1753185237</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>235</v>
@@ -4602,10 +4602,10 @@
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>-928229920</v>
+        <v>-693953037</v>
       </c>
       <c r="B169" s="3">
-        <v>-1762047952</v>
+        <v>1753185237</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>235</v>
@@ -4622,10 +4622,10 @@
     </row>
     <row r="170">
       <c r="A170" s="3">
-        <v>-594678200</v>
+        <v>437101228</v>
       </c>
       <c r="B170" s="3">
-        <v>-1586573444</v>
+        <v>1553275941</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>238</v>
@@ -4642,10 +4642,10 @@
     </row>
     <row r="171">
       <c r="A171" s="3">
-        <v>-445507712</v>
+        <v>1925488967</v>
       </c>
       <c r="B171" s="3">
-        <v>-773123988</v>
+        <v>417181438</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>240</v>
@@ -4662,10 +4662,10 @@
     </row>
     <row r="172">
       <c r="A172" s="3">
-        <v>-446825264</v>
+        <v>553737605</v>
       </c>
       <c r="B172" s="3">
-        <v>-981518740</v>
+        <v>-1422368536</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>241</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="173">
       <c r="A173" s="3">
-        <v>-1903962988</v>
+        <v>-593267104</v>
       </c>
       <c r="B173" s="3">
-        <v>679003640</v>
+        <v>-41951286</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>242</v>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="174">
       <c r="A174" s="3">
-        <v>-600084579</v>
+        <v>1130140136</v>
       </c>
       <c r="B174" s="3">
-        <v>-392477947</v>
+        <v>498502262</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>243</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="175">
       <c r="A175" s="3">
-        <v>-824851563</v>
+        <v>-1382448832</v>
       </c>
       <c r="B175" s="3">
-        <v>764955609</v>
+        <v>2118059982</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>245</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="176">
       <c r="A176" s="3">
-        <v>1181717926</v>
+        <v>139913362</v>
       </c>
       <c r="B176" s="3">
-        <v>764955609</v>
+        <v>2118059982</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>247</v>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="177">
       <c r="A177" s="3">
-        <v>-9716690</v>
+        <v>-901086922</v>
       </c>
       <c r="B177" s="3">
-        <v>764955609</v>
+        <v>2118059982</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>248</v>
@@ -4782,10 +4782,10 @@
     </row>
     <row r="178">
       <c r="A178" s="3">
-        <v>-1437778274</v>
+        <v>2125618822</v>
       </c>
       <c r="B178" s="3">
-        <v>-887612720</v>
+        <v>-1278219496</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>249</v>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>fileId</t>
   </si>
@@ -98,6 +98,15 @@
     <t>o__1952074993</t>
   </si>
   <si>
+    <t>LoginWindow</t>
+  </si>
+  <si>
+    <t>.prefab</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>xLuaScript.lua</t>
   </si>
   <si>
@@ -114,9 +123,6 @@
   </si>
   <si>
     <t>pf_hero_1002</t>
-  </si>
-  <si>
-    <t>.prefab</t>
   </si>
   <si>
     <t>o__403062850</t>
@@ -1224,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -1342,50 +1348,50 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1314513662</v>
+        <v>-1111317671</v>
       </c>
       <c r="B6" s="3">
-        <v>-764457537</v>
+        <v>-1255526873</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-671828977</v>
+        <v>-1314513662</v>
       </c>
       <c r="B7" s="3">
-        <v>703074975</v>
+        <v>-764457537</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-1822338762</v>
+        <v>-671828977</v>
       </c>
       <c r="B8" s="3">
-        <v>-2004506147</v>
+        <v>703074975</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -1397,21 +1403,21 @@
         <v>28</v>
       </c>
       <c r="F8" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>2069627225</v>
+        <v>-1822338762</v>
       </c>
       <c r="B9" s="3">
-        <v>1536776472</v>
+        <v>-2004506147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1422,7 +1428,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-639390330</v>
+        <v>2069627225</v>
       </c>
       <c r="B10" s="3">
         <v>1536776472</v>
@@ -1431,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>32</v>
@@ -1442,16 +1448,16 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-247032076</v>
+        <v>-639390330</v>
       </c>
       <c r="B11" s="3">
-        <v>-1919546133</v>
+        <v>1536776472</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>34</v>
@@ -1462,7 +1468,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-914683150</v>
+        <v>-247032076</v>
       </c>
       <c r="B12" s="3">
         <v>-1919546133</v>
@@ -1471,7 +1477,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>36</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>1469057108</v>
+        <v>-914683150</v>
       </c>
       <c r="B13" s="3">
         <v>-1919546133</v>
@@ -1491,7 +1497,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>38</v>
@@ -1502,7 +1508,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>563263933</v>
+        <v>1469057108</v>
       </c>
       <c r="B14" s="3">
         <v>-1919546133</v>
@@ -1511,7 +1517,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>40</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>-1640052790</v>
+        <v>563263933</v>
       </c>
       <c r="B15" s="3">
         <v>-1919546133</v>
@@ -1531,7 +1537,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>42</v>
@@ -1542,7 +1548,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>334986352</v>
+        <v>-1640052790</v>
       </c>
       <c r="B16" s="3">
         <v>-1919546133</v>
@@ -1551,7 +1557,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>44</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>1656382229</v>
+        <v>334986352</v>
       </c>
       <c r="B17" s="3">
         <v>-1919546133</v>
@@ -1571,7 +1577,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>46</v>
@@ -1582,7 +1588,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>1191492675</v>
+        <v>1656382229</v>
       </c>
       <c r="B18" s="3">
         <v>-1919546133</v>
@@ -1591,7 +1597,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>48</v>
@@ -1602,7 +1608,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>2125675024</v>
+        <v>1191492675</v>
       </c>
       <c r="B19" s="3">
         <v>-1919546133</v>
@@ -1611,7 +1617,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>50</v>
@@ -1622,7 +1628,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-1961533316</v>
+        <v>2125675024</v>
       </c>
       <c r="B20" s="3">
         <v>-1919546133</v>
@@ -1631,7 +1637,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>52</v>
@@ -1642,36 +1648,36 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1860432654</v>
+        <v>-1961533316</v>
       </c>
       <c r="B21" s="3">
-        <v>1325637814</v>
+        <v>-1919546133</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F21" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>-935725446</v>
+        <v>-1860432654</v>
       </c>
       <c r="B22" s="3">
         <v>1325637814</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>57</v>
@@ -1682,7 +1688,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>1652309691</v>
+        <v>-935725446</v>
       </c>
       <c r="B23" s="3">
         <v>1325637814</v>
@@ -1691,7 +1697,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>59</v>
@@ -1702,7 +1708,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>1305370276</v>
+        <v>1652309691</v>
       </c>
       <c r="B24" s="3">
         <v>1325637814</v>
@@ -1711,7 +1717,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>61</v>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1784042025</v>
+        <v>1305370276</v>
       </c>
       <c r="B25" s="3">
         <v>1325637814</v>
@@ -1731,7 +1737,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>63</v>
@@ -1742,7 +1748,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>-692579849</v>
+        <v>1784042025</v>
       </c>
       <c r="B26" s="3">
         <v>1325637814</v>
@@ -1751,7 +1757,7 @@
         <v>64</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>65</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>1479034210</v>
+        <v>-692579849</v>
       </c>
       <c r="B27" s="3">
         <v>1325637814</v>
@@ -1771,7 +1777,7 @@
         <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>67</v>
@@ -1782,7 +1788,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-1608441305</v>
+        <v>1479034210</v>
       </c>
       <c r="B28" s="3">
         <v>1325637814</v>
@@ -1791,7 +1797,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>69</v>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>2073847480</v>
+        <v>-1608441305</v>
       </c>
       <c r="B29" s="3">
         <v>1325637814</v>
@@ -1811,7 +1817,7 @@
         <v>70</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>71</v>
@@ -1822,7 +1828,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>1229683040</v>
+        <v>2073847480</v>
       </c>
       <c r="B30" s="3">
         <v>1325637814</v>
@@ -1831,7 +1837,7 @@
         <v>72</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>73</v>
@@ -1842,7 +1848,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>1889580147</v>
+        <v>1229683040</v>
       </c>
       <c r="B31" s="3">
         <v>1325637814</v>
@@ -1851,7 +1857,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>75</v>
@@ -1862,7 +1868,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>698208992</v>
+        <v>1889580147</v>
       </c>
       <c r="B32" s="3">
         <v>1325637814</v>
@@ -1871,7 +1877,7 @@
         <v>76</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>77</v>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>1741707445</v>
+        <v>698208992</v>
       </c>
       <c r="B33" s="3">
         <v>1325637814</v>
@@ -1891,7 +1897,7 @@
         <v>78</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>79</v>
@@ -1902,36 +1908,36 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>1334679678</v>
+        <v>1741707445</v>
       </c>
       <c r="B34" s="3">
-        <v>-1405308702</v>
+        <v>1325637814</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>203780964</v>
+        <v>1334679678</v>
       </c>
       <c r="B35" s="3">
         <v>-1405308702</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>84</v>
@@ -1942,7 +1948,7 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>904144584</v>
+        <v>203780964</v>
       </c>
       <c r="B36" s="3">
         <v>-1405308702</v>
@@ -1951,7 +1957,7 @@
         <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>86</v>
@@ -1962,7 +1968,7 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>-1147649747</v>
+        <v>904144584</v>
       </c>
       <c r="B37" s="3">
         <v>-1405308702</v>
@@ -1971,7 +1977,7 @@
         <v>87</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>88</v>
@@ -1982,16 +1988,16 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>1649820611</v>
+        <v>-1147649747</v>
       </c>
       <c r="B38" s="3">
-        <v>-1408754900</v>
+        <v>-1405308702</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>90</v>
@@ -2002,19 +2008,19 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>1784757519</v>
+        <v>1649820611</v>
       </c>
       <c r="B39" s="3">
-        <v>1311652878</v>
+        <v>-1408754900</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -2022,16 +2028,16 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>41156671</v>
+        <v>1784757519</v>
       </c>
       <c r="B40" s="3">
-        <v>853849619</v>
+        <v>1311652878</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>95</v>
@@ -2042,16 +2048,16 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>433278951</v>
+        <v>41156671</v>
       </c>
       <c r="B41" s="3">
-        <v>1498651392</v>
+        <v>853849619</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>97</v>
@@ -2062,7 +2068,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>1887145564</v>
+        <v>433278951</v>
       </c>
       <c r="B42" s="3">
         <v>1498651392</v>
@@ -2071,10 +2077,10 @@
         <v>98</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2082,19 +2088,19 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>797307857</v>
+        <v>1887145564</v>
       </c>
       <c r="B43" s="3">
         <v>1498651392</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>-337981905</v>
+        <v>797307857</v>
       </c>
       <c r="B44" s="3">
         <v>1498651392</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>153670792</v>
+        <v>-337981905</v>
       </c>
       <c r="B45" s="3">
         <v>1498651392</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2142,19 +2148,19 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>-1564951367</v>
+        <v>153670792</v>
       </c>
       <c r="B46" s="3">
         <v>1498651392</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>-59478781</v>
+        <v>-1564951367</v>
       </c>
       <c r="B47" s="3">
         <v>1498651392</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>-171116364</v>
+        <v>-59478781</v>
       </c>
       <c r="B48" s="3">
         <v>1498651392</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>1358693645</v>
+        <v>-171116364</v>
       </c>
       <c r="B49" s="3">
         <v>1498651392</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>-789027443</v>
+        <v>1358693645</v>
       </c>
       <c r="B50" s="3">
         <v>1498651392</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-521246146</v>
+        <v>-789027443</v>
       </c>
       <c r="B51" s="3">
         <v>1498651392</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>-866621371</v>
+        <v>-521246146</v>
       </c>
       <c r="B52" s="3">
         <v>1498651392</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-1202190585</v>
+        <v>-866621371</v>
       </c>
       <c r="B53" s="3">
         <v>1498651392</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>-697777798</v>
+        <v>-1202190585</v>
       </c>
       <c r="B54" s="3">
         <v>1498651392</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2322,19 +2328,19 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>-822758644</v>
+        <v>-697777798</v>
       </c>
       <c r="B55" s="3">
         <v>1498651392</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>-683937367</v>
+        <v>-822758644</v>
       </c>
       <c r="B56" s="3">
         <v>1498651392</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>1656373698</v>
+        <v>-683937367</v>
       </c>
       <c r="B57" s="3">
         <v>1498651392</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>-1576961177</v>
+        <v>1656373698</v>
       </c>
       <c r="B58" s="3">
         <v>1498651392</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2402,19 +2408,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>1210637086</v>
+        <v>-1576961177</v>
       </c>
       <c r="B59" s="3">
         <v>1498651392</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2422,19 +2428,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>1015097087</v>
+        <v>1210637086</v>
       </c>
       <c r="B60" s="3">
         <v>1498651392</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2442,19 +2448,19 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>-1179819934</v>
+        <v>1015097087</v>
       </c>
       <c r="B61" s="3">
         <v>1498651392</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2462,19 +2468,19 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>887404725</v>
+        <v>-1179819934</v>
       </c>
       <c r="B62" s="3">
         <v>1498651392</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2482,19 +2488,19 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>1668790150</v>
+        <v>887404725</v>
       </c>
       <c r="B63" s="3">
         <v>1498651392</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2502,19 +2508,19 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>2000159984</v>
+        <v>1668790150</v>
       </c>
       <c r="B64" s="3">
         <v>1498651392</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>-828125338</v>
+        <v>2000159984</v>
       </c>
       <c r="B65" s="3">
         <v>1498651392</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2542,19 +2548,19 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>-2000734508</v>
+        <v>-828125338</v>
       </c>
       <c r="B66" s="3">
         <v>1498651392</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>-2120242522</v>
+        <v>-2000734508</v>
       </c>
       <c r="B67" s="3">
         <v>1498651392</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2582,19 +2588,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>801904891</v>
+        <v>-2120242522</v>
       </c>
       <c r="B68" s="3">
         <v>1498651392</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2602,19 +2608,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>-1470467503</v>
+        <v>801904891</v>
       </c>
       <c r="B69" s="3">
         <v>1498651392</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2622,19 +2628,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>337104583</v>
+        <v>-1470467503</v>
       </c>
       <c r="B70" s="3">
         <v>1498651392</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2642,19 +2648,19 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>2090923639</v>
+        <v>337104583</v>
       </c>
       <c r="B71" s="3">
         <v>1498651392</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>-963389618</v>
+        <v>2090923639</v>
       </c>
       <c r="B72" s="3">
         <v>1498651392</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2682,19 +2688,19 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>-873179829</v>
+        <v>-963389618</v>
       </c>
       <c r="B73" s="3">
         <v>1498651392</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>-116491982</v>
+        <v>-873179829</v>
       </c>
       <c r="B74" s="3">
-        <v>-143016780</v>
+        <v>1498651392</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2722,7 +2728,7 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>-1735360998</v>
+        <v>-116491982</v>
       </c>
       <c r="B75" s="3">
         <v>-143016780</v>
@@ -2731,10 +2737,10 @@
         <v>132</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2742,19 +2748,19 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>1223135529</v>
+        <v>-1735360998</v>
       </c>
       <c r="B76" s="3">
         <v>-143016780</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>-1900676780</v>
+        <v>1223135529</v>
       </c>
       <c r="B77" s="3">
-        <v>-228276413</v>
+        <v>-143016780</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2782,16 +2788,16 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>-2078450133</v>
+        <v>-1900676780</v>
       </c>
       <c r="B78" s="3">
-        <v>697093135</v>
+        <v>-228276413</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>137</v>
@@ -2802,7 +2808,7 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>-1710946484</v>
+        <v>-2078450133</v>
       </c>
       <c r="B79" s="3">
         <v>697093135</v>
@@ -2811,10 +2817,10 @@
         <v>138</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2822,19 +2828,19 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-957768232</v>
+        <v>-1710946484</v>
       </c>
       <c r="B80" s="3">
         <v>697093135</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2842,19 +2848,19 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>-2034364172</v>
+        <v>-957768232</v>
       </c>
       <c r="B81" s="3">
         <v>697093135</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2862,19 +2868,19 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>-853281810</v>
+        <v>-2034364172</v>
       </c>
       <c r="B82" s="3">
         <v>697093135</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>-1945931504</v>
+        <v>-853281810</v>
       </c>
       <c r="B83" s="3">
         <v>697093135</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>-500020199</v>
+        <v>-1945931504</v>
       </c>
       <c r="B84" s="3">
         <v>697093135</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2922,19 +2928,19 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>1757638406</v>
+        <v>-500020199</v>
       </c>
       <c r="B85" s="3">
         <v>697093135</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2942,19 +2948,19 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>1988261967</v>
+        <v>1757638406</v>
       </c>
       <c r="B86" s="3">
         <v>697093135</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2962,19 +2968,19 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>-995549749</v>
+        <v>1988261967</v>
       </c>
       <c r="B87" s="3">
         <v>697093135</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -2982,19 +2988,19 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>-2065132448</v>
+        <v>-995549749</v>
       </c>
       <c r="B88" s="3">
         <v>697093135</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>-469814560</v>
+        <v>-2065132448</v>
       </c>
       <c r="B89" s="3">
         <v>697093135</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3022,19 +3028,19 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>-1709480205</v>
+        <v>-469814560</v>
       </c>
       <c r="B90" s="3">
         <v>697093135</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -3042,19 +3048,19 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>140739289</v>
+        <v>-1709480205</v>
       </c>
       <c r="B91" s="3">
-        <v>-1099268540</v>
+        <v>697093135</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3062,7 +3068,7 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>-1608487925</v>
+        <v>140739289</v>
       </c>
       <c r="B92" s="3">
         <v>-1099268540</v>
@@ -3071,10 +3077,10 @@
         <v>152</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>2105748090</v>
+        <v>-1608487925</v>
       </c>
       <c r="B93" s="3">
         <v>-1099268540</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -3102,19 +3108,19 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>789221405</v>
+        <v>2105748090</v>
       </c>
       <c r="B94" s="3">
-        <v>-1080227996</v>
+        <v>-1099268540</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3122,7 +3128,7 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>1216959907</v>
+        <v>789221405</v>
       </c>
       <c r="B95" s="3">
         <v>-1080227996</v>
@@ -3131,10 +3137,10 @@
         <v>156</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>-476086870</v>
+        <v>1216959907</v>
       </c>
       <c r="B96" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3162,19 +3168,19 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>-838689769</v>
+        <v>-476086870</v>
       </c>
       <c r="B97" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -3182,19 +3188,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>-1802325708</v>
+        <v>-838689769</v>
       </c>
       <c r="B98" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3202,19 +3208,19 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>1989727680</v>
+        <v>-1802325708</v>
       </c>
       <c r="B99" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>-1939875048</v>
+        <v>1989727680</v>
       </c>
       <c r="B100" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3242,19 +3248,19 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>-1464485623</v>
+        <v>-1939875048</v>
       </c>
       <c r="B101" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3262,19 +3268,19 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-1951531947</v>
+        <v>-1464485623</v>
       </c>
       <c r="B102" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3282,19 +3288,19 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-1046567820</v>
+        <v>-1951531947</v>
       </c>
       <c r="B103" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3302,19 +3308,19 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>1068522423</v>
+        <v>-1046567820</v>
       </c>
       <c r="B104" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3322,19 +3328,19 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>-300423134</v>
+        <v>1068522423</v>
       </c>
       <c r="B105" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3342,19 +3348,19 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>1006821704</v>
+        <v>-300423134</v>
       </c>
       <c r="B106" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3362,19 +3368,19 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>-807058300</v>
+        <v>1006821704</v>
       </c>
       <c r="B107" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3382,19 +3388,19 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>861913762</v>
+        <v>-807058300</v>
       </c>
       <c r="B108" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3402,19 +3408,19 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>-754517366</v>
+        <v>861913762</v>
       </c>
       <c r="B109" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3422,19 +3428,19 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>130754166</v>
+        <v>-754517366</v>
       </c>
       <c r="B110" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -3442,19 +3448,19 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>125947051</v>
+        <v>130754166</v>
       </c>
       <c r="B111" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -3462,19 +3468,19 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>-1770038881</v>
+        <v>125947051</v>
       </c>
       <c r="B112" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -3482,19 +3488,19 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-619684109</v>
+        <v>-1770038881</v>
       </c>
       <c r="B113" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3502,19 +3508,19 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>1129969276</v>
+        <v>-619684109</v>
       </c>
       <c r="B114" s="3">
-        <v>1006479116</v>
+        <v>-1080227996</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -3522,7 +3528,7 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>2087578356</v>
+        <v>1129969276</v>
       </c>
       <c r="B115" s="3">
         <v>1006479116</v>
@@ -3531,10 +3537,10 @@
         <v>177</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -3542,19 +3548,19 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>-1682130970</v>
+        <v>2087578356</v>
       </c>
       <c r="B116" s="3">
         <v>1006479116</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -3562,19 +3568,19 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>-1517097132</v>
+        <v>-1682130970</v>
       </c>
       <c r="B117" s="3">
-        <v>851451727</v>
+        <v>1006479116</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -3582,7 +3588,7 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>-1065385250</v>
+        <v>-1517097132</v>
       </c>
       <c r="B118" s="3">
         <v>851451727</v>
@@ -3591,10 +3597,10 @@
         <v>181</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -3602,19 +3608,19 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>1033151513</v>
+        <v>-1065385250</v>
       </c>
       <c r="B119" s="3">
         <v>851451727</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -3622,19 +3628,19 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>-2058283314</v>
+        <v>1033151513</v>
       </c>
       <c r="B120" s="3">
-        <v>303790042</v>
+        <v>851451727</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3642,7 +3648,7 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>2029688188</v>
+        <v>-2058283314</v>
       </c>
       <c r="B121" s="3">
         <v>303790042</v>
@@ -3651,10 +3657,10 @@
         <v>185</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3662,19 +3668,19 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>-1469368861</v>
+        <v>2029688188</v>
       </c>
       <c r="B122" s="3">
         <v>303790042</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3682,19 +3688,19 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>-683434627</v>
+        <v>-1469368861</v>
       </c>
       <c r="B123" s="3">
         <v>303790042</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3702,19 +3708,19 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>1967723194</v>
+        <v>-683434627</v>
       </c>
       <c r="B124" s="3">
         <v>303790042</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3722,19 +3728,19 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>1396964412</v>
+        <v>1967723194</v>
       </c>
       <c r="B125" s="3">
         <v>303790042</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3742,19 +3748,19 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>1716523581</v>
+        <v>1396964412</v>
       </c>
       <c r="B126" s="3">
         <v>303790042</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3762,19 +3768,19 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>1121214035</v>
+        <v>1716523581</v>
       </c>
       <c r="B127" s="3">
         <v>303790042</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3782,19 +3788,19 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>1691528606</v>
+        <v>1121214035</v>
       </c>
       <c r="B128" s="3">
         <v>303790042</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3802,19 +3808,19 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>-390587125</v>
+        <v>1691528606</v>
       </c>
       <c r="B129" s="3">
         <v>303790042</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3822,19 +3828,19 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>1704422050</v>
+        <v>-390587125</v>
       </c>
       <c r="B130" s="3">
         <v>303790042</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3842,19 +3848,19 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>-1536911730</v>
+        <v>1704422050</v>
       </c>
       <c r="B131" s="3">
         <v>303790042</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3862,19 +3868,19 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>413905320</v>
+        <v>-1536911730</v>
       </c>
       <c r="B132" s="3">
         <v>303790042</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3882,19 +3888,19 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>-48817825</v>
+        <v>413905320</v>
       </c>
       <c r="B133" s="3">
         <v>303790042</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3902,19 +3908,19 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-959482885</v>
+        <v>-48817825</v>
       </c>
       <c r="B134" s="3">
         <v>303790042</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3922,19 +3928,19 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>2073649712</v>
+        <v>-959482885</v>
       </c>
       <c r="B135" s="3">
         <v>303790042</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3942,19 +3948,19 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>1029219947</v>
+        <v>2073649712</v>
       </c>
       <c r="B136" s="3">
         <v>303790042</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3962,19 +3968,19 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>-1791028253</v>
+        <v>1029219947</v>
       </c>
       <c r="B137" s="3">
         <v>303790042</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -3982,19 +3988,19 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>-278736850</v>
+        <v>-1791028253</v>
       </c>
       <c r="B138" s="3">
         <v>303790042</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -4002,19 +4008,19 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>64477520</v>
+        <v>-278736850</v>
       </c>
       <c r="B139" s="3">
         <v>303790042</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -4022,19 +4028,19 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>1525107119</v>
+        <v>64477520</v>
       </c>
       <c r="B140" s="3">
         <v>303790042</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -4042,19 +4048,19 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>1894508942</v>
+        <v>1525107119</v>
       </c>
       <c r="B141" s="3">
         <v>303790042</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -4062,19 +4068,19 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>786946575</v>
+        <v>1894508942</v>
       </c>
       <c r="B142" s="3">
         <v>303790042</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -4082,19 +4088,19 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>1743712584</v>
+        <v>786946575</v>
       </c>
       <c r="B143" s="3">
         <v>303790042</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -4102,19 +4108,19 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>-1666523598</v>
+        <v>1743712584</v>
       </c>
       <c r="B144" s="3">
         <v>303790042</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -4122,19 +4128,19 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>-209439764</v>
+        <v>-1666523598</v>
       </c>
       <c r="B145" s="3">
         <v>303790042</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -4142,19 +4148,19 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-1975734379</v>
+        <v>-209439764</v>
       </c>
       <c r="B146" s="3">
         <v>303790042</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -4162,19 +4168,19 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>1273481327</v>
+        <v>-1975734379</v>
       </c>
       <c r="B147" s="3">
         <v>303790042</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -4182,19 +4188,19 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>785293368</v>
+        <v>1273481327</v>
       </c>
       <c r="B148" s="3">
         <v>303790042</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -4202,19 +4208,19 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>-594615111</v>
+        <v>785293368</v>
       </c>
       <c r="B149" s="3">
         <v>303790042</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -4222,19 +4228,19 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>-509427602</v>
+        <v>-594615111</v>
       </c>
       <c r="B150" s="3">
         <v>303790042</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -4242,19 +4248,19 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>-522008429</v>
+        <v>-509427602</v>
       </c>
       <c r="B151" s="3">
         <v>303790042</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -4262,19 +4268,19 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>1223491875</v>
+        <v>-522008429</v>
       </c>
       <c r="B152" s="3">
         <v>303790042</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
@@ -4282,19 +4288,19 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>1068025648</v>
+        <v>1223491875</v>
       </c>
       <c r="B153" s="3">
         <v>303790042</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -4302,19 +4308,19 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>-1281428191</v>
+        <v>1068025648</v>
       </c>
       <c r="B154" s="3">
         <v>303790042</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -4322,19 +4328,19 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>559760484</v>
+        <v>-1281428191</v>
       </c>
       <c r="B155" s="3">
-        <v>779000644</v>
+        <v>303790042</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -4342,7 +4348,7 @@
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>1147450703</v>
+        <v>559760484</v>
       </c>
       <c r="B156" s="3">
         <v>779000644</v>
@@ -4351,10 +4357,10 @@
         <v>221</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -4362,19 +4368,19 @@
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>-555765293</v>
+        <v>1147450703</v>
       </c>
       <c r="B157" s="3">
         <v>779000644</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -4382,19 +4388,19 @@
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>-1008309707</v>
+        <v>-555765293</v>
       </c>
       <c r="B158" s="3">
         <v>779000644</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -4402,19 +4408,19 @@
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>1649328148</v>
+        <v>-1008309707</v>
       </c>
       <c r="B159" s="3">
         <v>779000644</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -4422,19 +4428,19 @@
     </row>
     <row r="160">
       <c r="A160" s="3">
-        <v>1483365187</v>
+        <v>1649328148</v>
       </c>
       <c r="B160" s="3">
         <v>779000644</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -4442,19 +4448,19 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>488959337</v>
+        <v>1483365187</v>
       </c>
       <c r="B161" s="3">
-        <v>1205799434</v>
+        <v>779000644</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -4462,7 +4468,7 @@
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>-258823006</v>
+        <v>488959337</v>
       </c>
       <c r="B162" s="3">
         <v>1205799434</v>
@@ -4471,10 +4477,10 @@
         <v>228</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -4482,19 +4488,19 @@
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>-877025943</v>
+        <v>-258823006</v>
       </c>
       <c r="B163" s="3">
         <v>1205799434</v>
       </c>
       <c r="C163" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -4502,19 +4508,19 @@
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>-1928104510</v>
+        <v>-877025943</v>
       </c>
       <c r="B164" s="3">
         <v>1205799434</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
@@ -4522,19 +4528,19 @@
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>233779722</v>
+        <v>-1928104510</v>
       </c>
       <c r="B165" s="3">
         <v>1205799434</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
@@ -4542,19 +4548,19 @@
     </row>
     <row r="166">
       <c r="A166" s="3">
-        <v>575019724</v>
+        <v>233779722</v>
       </c>
       <c r="B166" s="3">
         <v>1205799434</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
@@ -4562,76 +4568,76 @@
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>-1924748440</v>
+        <v>575019724</v>
       </c>
       <c r="B167" s="3">
-        <v>1993197872</v>
+        <v>1205799434</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F167" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>1203732579</v>
+        <v>-1924748440</v>
       </c>
       <c r="B168" s="3">
-        <v>1753185237</v>
+        <v>1993197872</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D168" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="F168" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>-693953037</v>
+        <v>1203732579</v>
       </c>
       <c r="B169" s="3">
         <v>1753185237</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F169" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3">
-        <v>437101228</v>
+        <v>-693953037</v>
       </c>
       <c r="B170" s="3">
-        <v>1553275941</v>
+        <v>1753185237</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>239</v>
@@ -4642,19 +4648,19 @@
     </row>
     <row r="171">
       <c r="A171" s="3">
-        <v>1925488967</v>
+        <v>437101228</v>
       </c>
       <c r="B171" s="3">
-        <v>417181438</v>
+        <v>1553275941</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F171" s="3">
         <v>15</v>
@@ -4662,19 +4668,19 @@
     </row>
     <row r="172">
       <c r="A172" s="3">
-        <v>553737605</v>
+        <v>1925488967</v>
       </c>
       <c r="B172" s="3">
-        <v>-1422368536</v>
+        <v>417181438</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="F172" s="3">
         <v>15</v>
@@ -4682,19 +4688,19 @@
     </row>
     <row r="173">
       <c r="A173" s="3">
-        <v>-593267104</v>
+        <v>553737605</v>
       </c>
       <c r="B173" s="3">
-        <v>-41951286</v>
+        <v>-1422368536</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="F173" s="3">
         <v>15</v>
@@ -4702,19 +4708,19 @@
     </row>
     <row r="174">
       <c r="A174" s="3">
-        <v>1130140136</v>
+        <v>-593267104</v>
       </c>
       <c r="B174" s="3">
-        <v>498502262</v>
+        <v>-41951286</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="F174" s="3">
         <v>15</v>
@@ -4722,27 +4728,27 @@
     </row>
     <row r="175">
       <c r="A175" s="3">
-        <v>-1382448832</v>
+        <v>1130140136</v>
       </c>
       <c r="B175" s="3">
-        <v>2118059982</v>
+        <v>498502262</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>245</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>246</v>
       </c>
       <c r="F175" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3">
-        <v>139913362</v>
+        <v>-1382448832</v>
       </c>
       <c r="B176" s="3">
         <v>2118059982</v>
@@ -4754,7 +4760,7 @@
         <v>19</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F176" s="3">
         <v>26</v>
@@ -4762,19 +4768,19 @@
     </row>
     <row r="177">
       <c r="A177" s="3">
-        <v>-901086922</v>
+        <v>139913362</v>
       </c>
       <c r="B177" s="3">
         <v>2118059982</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F177" s="3">
         <v>26</v>
@@ -4782,21 +4788,41 @@
     </row>
     <row r="178">
       <c r="A178" s="3">
-        <v>2125618822</v>
+        <v>-901086922</v>
       </c>
       <c r="B178" s="3">
-        <v>-1278219496</v>
+        <v>2118059982</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F178" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3">
+        <v>2125618822</v>
+      </c>
+      <c r="B179" s="3">
+        <v>-1278219496</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F179" s="3">
         <v>26</v>
       </c>
     </row>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -104,7 +104,7 @@
     <t>.prefab</t>
   </si>
   <si>
-    <t/>
+    <t>o_1745831994</t>
   </si>
   <si>
     <t>xLuaScript.lua</t>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>fileId</t>
   </si>
@@ -299,481 +299,493 @@
     <t>chgPowerCircle3</t>
   </si>
   <si>
+    <t>o__1549426210</t>
+  </si>
+  <si>
+    <t>effect_hero_foot</t>
+  </si>
+  <si>
+    <t>o_283329097</t>
+  </si>
+  <si>
+    <t>ugui_loading</t>
+  </si>
+  <si>
+    <t>o__1336611924</t>
+  </si>
+  <si>
+    <t>LobbyBackground</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>o__1697330953</t>
+  </si>
+  <si>
+    <t>ugui_login</t>
+  </si>
+  <si>
+    <t>o_1351797518</t>
+  </si>
+  <si>
+    <t>battle_camp_blue</t>
+  </si>
+  <si>
+    <t>sp__1035726558</t>
+  </si>
+  <si>
+    <t>battle_camp_purple</t>
+  </si>
+  <si>
+    <t>battle_camp_yellow</t>
+  </si>
+  <si>
+    <t>battle_dead</t>
+  </si>
+  <si>
+    <t>battle_dialog</t>
+  </si>
+  <si>
+    <t>battle_dialog_bg</t>
+  </si>
+  <si>
+    <t>battle_hero_msg</t>
+  </si>
+  <si>
+    <t>battle_hp</t>
+  </si>
+  <si>
+    <t>battle_hp_bg</t>
+  </si>
+  <si>
+    <t>battle_joystick</t>
+  </si>
+  <si>
+    <t>battle_joystick_bg</t>
+  </si>
+  <si>
+    <t>battle_kill</t>
+  </si>
+  <si>
+    <t>battle_kill1</t>
+  </si>
+  <si>
+    <t>battle_kill2</t>
+  </si>
+  <si>
+    <t>battle_kill3</t>
+  </si>
+  <si>
+    <t>battle_kill4</t>
+  </si>
+  <si>
+    <t>battle_kill_bg</t>
+  </si>
+  <si>
+    <t>battle_kill_icon</t>
+  </si>
+  <si>
+    <t>battle_kill_row</t>
+  </si>
+  <si>
+    <t>battle_map</t>
+  </si>
+  <si>
+    <t>battle_medicine</t>
+  </si>
+  <si>
+    <t>battle_medicine_bg</t>
+  </si>
+  <si>
+    <t>battle_mp</t>
+  </si>
+  <si>
+    <t>battle_other</t>
+  </si>
+  <si>
+    <t>battle_other1</t>
+  </si>
+  <si>
+    <t>battle_setup</t>
+  </si>
+  <si>
+    <t>battle_setup1</t>
+  </si>
+  <si>
+    <t>battle_setup_bg</t>
+  </si>
+  <si>
+    <t>battle_setup_other</t>
+  </si>
+  <si>
+    <t>battle_skill_add</t>
+  </si>
+  <si>
+    <t>battle_skill_bg</t>
+  </si>
+  <si>
+    <t>battle_skill_level</t>
+  </si>
+  <si>
+    <t>battle_time</t>
+  </si>
+  <si>
+    <t>SkillShape_Circle</t>
+  </si>
+  <si>
+    <t>sp_2066178417</t>
+  </si>
+  <si>
+    <t>SkillShape_Line</t>
+  </si>
+  <si>
+    <t>SkillShape_Sector</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>sp__1216343438</t>
+  </si>
+  <si>
+    <t>hero_show_attack</t>
+  </si>
+  <si>
+    <t>sp_195515899</t>
+  </si>
+  <si>
+    <t>hero_show_back</t>
+  </si>
+  <si>
+    <t>hero_show_button_attack</t>
+  </si>
+  <si>
+    <t>hero_show_button_def</t>
+  </si>
+  <si>
+    <t>hero_show_button_hp</t>
+  </si>
+  <si>
+    <t>hero_show_button_move</t>
+  </si>
+  <si>
+    <t>hero_show_button_speed</t>
+  </si>
+  <si>
+    <t>hero_show_def</t>
+  </si>
+  <si>
+    <t>hero_show_hp</t>
+  </si>
+  <si>
+    <t>hero_show_move</t>
+  </si>
+  <si>
+    <t>hero_show_skin</t>
+  </si>
+  <si>
+    <t>hero_show_speed</t>
+  </si>
+  <si>
+    <t>hero_show_tower</t>
+  </si>
+  <si>
+    <t>loading_item</t>
+  </si>
+  <si>
+    <t>sp__1122510547</t>
+  </si>
+  <si>
+    <t>loading_other</t>
+  </si>
+  <si>
+    <t>loading_other1</t>
+  </si>
+  <si>
+    <t>lobby_achieve</t>
+  </si>
+  <si>
+    <t>sp__1148454062</t>
+  </si>
+  <si>
+    <t>lobby_activity</t>
+  </si>
+  <si>
+    <t>lobby_bg</t>
+  </si>
+  <si>
+    <t>lobby_chat_bg</t>
+  </si>
+  <si>
+    <t>lobby_chat_speak</t>
+  </si>
+  <si>
+    <t>lobby_energy</t>
+  </si>
+  <si>
+    <t>lobby_equip</t>
+  </si>
+  <si>
+    <t>lobby_friend</t>
+  </si>
+  <si>
+    <t>lobby_hero</t>
+  </si>
+  <si>
+    <t>lobby_mail</t>
+  </si>
+  <si>
+    <t>lobby_misson</t>
+  </si>
+  <si>
+    <t>lobby_mobile</t>
+  </si>
+  <si>
+    <t>lobby_mode</t>
+  </si>
+  <si>
+    <t>lobby_player1</t>
+  </si>
+  <si>
+    <t>lobby_player2</t>
+  </si>
+  <si>
+    <t>lobby_player_bg</t>
+  </si>
+  <si>
+    <t>lobby_player_frame</t>
+  </si>
+  <si>
+    <t>lobby_rank</t>
+  </si>
+  <si>
+    <t>lobby_setup</t>
+  </si>
+  <si>
+    <t>lobby_shop</t>
+  </si>
+  <si>
+    <t>login_btn_login</t>
+  </si>
+  <si>
+    <t>sp__1912636868</t>
+  </si>
+  <si>
+    <t>login_dian</t>
+  </si>
+  <si>
+    <t>login_server</t>
+  </si>
+  <si>
+    <t>match_job</t>
+  </si>
+  <si>
+    <t>sp__1731937322</t>
+  </si>
+  <si>
+    <t>match_player</t>
+  </si>
+  <si>
+    <t>match_say</t>
+  </si>
+  <si>
+    <t>share_add</t>
+  </si>
+  <si>
+    <t>sp__1689139945</t>
+  </si>
+  <si>
+    <t>share_bg</t>
+  </si>
+  <si>
+    <t>share_bg1</t>
+  </si>
+  <si>
+    <t>share_bg2</t>
+  </si>
+  <si>
+    <t>share_bg3</t>
+  </si>
+  <si>
+    <t>share_button_yellow</t>
+  </si>
+  <si>
+    <t>share_chat</t>
+  </si>
+  <si>
+    <t>share_circle1</t>
+  </si>
+  <si>
+    <t>share_circle2</t>
+  </si>
+  <si>
+    <t>share_close</t>
+  </si>
+  <si>
+    <t>share_gold</t>
+  </si>
+  <si>
+    <t>share_hero_name</t>
+  </si>
+  <si>
+    <t>share_item</t>
+  </si>
+  <si>
+    <t>share_item_bg</t>
+  </si>
+  <si>
+    <t>share_item_select</t>
+  </si>
+  <si>
+    <t>share_line</t>
+  </si>
+  <si>
+    <t>share_other</t>
+  </si>
+  <si>
+    <t>share_other1</t>
+  </si>
+  <si>
+    <t>share_other2</t>
+  </si>
+  <si>
+    <t>share_other3</t>
+  </si>
+  <si>
+    <t>share_radar</t>
+  </si>
+  <si>
+    <t>share_radar_bg</t>
+  </si>
+  <si>
+    <t>share_silver</t>
+  </si>
+  <si>
+    <t>share_skill</t>
+  </si>
+  <si>
+    <t>share_skin1</t>
+  </si>
+  <si>
+    <t>share_slider</t>
+  </si>
+  <si>
+    <t>share_slider_bg</t>
+  </si>
+  <si>
+    <t>share_star</t>
+  </si>
+  <si>
+    <t>share_title</t>
+  </si>
+  <si>
+    <t>share_title1_bg</t>
+  </si>
+  <si>
+    <t>share_title1_bg1</t>
+  </si>
+  <si>
+    <t>share_title_bg</t>
+  </si>
+  <si>
+    <t>share_title_bg1</t>
+  </si>
+  <si>
+    <t>share_why</t>
+  </si>
+  <si>
+    <t>share_yes</t>
+  </si>
+  <si>
+    <t>shop_item_bg</t>
+  </si>
+  <si>
+    <t>sp__1231002214</t>
+  </si>
+  <si>
+    <t>shop_other1</t>
+  </si>
+  <si>
+    <t>shop_other2</t>
+  </si>
+  <si>
+    <t>shop_other3</t>
+  </si>
+  <si>
+    <t>shop_other4</t>
+  </si>
+  <si>
+    <t>shop_other5</t>
+  </si>
+  <si>
+    <t>Skill100204</t>
+  </si>
+  <si>
+    <t>sp_617036868</t>
+  </si>
+  <si>
+    <t>Skill100205</t>
+  </si>
+  <si>
+    <t>Skill100206</t>
+  </si>
+  <si>
+    <t>Skill100404</t>
+  </si>
+  <si>
+    <t>Skill100405</t>
+  </si>
+  <si>
+    <t>Skill100406</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>o_1026750565</t>
+  </si>
+  <si>
+    <t>ExampleCinemachine_DollyCartTimeline</t>
+  </si>
+  <si>
+    <t>.playable</t>
+  </si>
+  <si>
+    <t>o__1387203915</t>
+  </si>
+  <si>
+    <t>o__813950590</t>
+  </si>
+  <si>
+    <t>ExampleGuideWindow</t>
+  </si>
+  <si>
+    <t>o_1346986897</t>
+  </si>
+  <si>
+    <t>ExampleHeroListWindow</t>
+  </si>
+  <si>
+    <t>o__1429899321</t>
+  </si>
+  <si>
+    <t>ExampleLobbyWindow</t>
+  </si>
+  <si>
+    <t>o__565934673</t>
+  </si>
+  <si>
+    <t>ExampleMessageBoxWindow</t>
+  </si>
+  <si>
     <t>o_1653263674</t>
   </si>
   <si>
-    <t>effect_hero_foot</t>
-  </si>
-  <si>
-    <t>o_283329097</t>
-  </si>
-  <si>
-    <t>ugui_loading</t>
-  </si>
-  <si>
-    <t>o__1336611924</t>
-  </si>
-  <si>
-    <t>LobbyBackground</t>
-  </si>
-  <si>
-    <t>.jpg</t>
-  </si>
-  <si>
-    <t>o__1697330953</t>
-  </si>
-  <si>
-    <t>ugui_login</t>
-  </si>
-  <si>
-    <t>o_1351797518</t>
-  </si>
-  <si>
-    <t>battle_camp_blue</t>
-  </si>
-  <si>
-    <t>sp__1643345598</t>
-  </si>
-  <si>
-    <t>battle_camp_purple</t>
-  </si>
-  <si>
-    <t>battle_camp_yellow</t>
-  </si>
-  <si>
-    <t>battle_dead</t>
-  </si>
-  <si>
-    <t>battle_dialog</t>
-  </si>
-  <si>
-    <t>battle_dialog_bg</t>
-  </si>
-  <si>
-    <t>battle_hero_msg</t>
-  </si>
-  <si>
-    <t>battle_hp</t>
-  </si>
-  <si>
-    <t>battle_hp_bg</t>
-  </si>
-  <si>
-    <t>battle_joystick</t>
-  </si>
-  <si>
-    <t>battle_joystick_bg</t>
-  </si>
-  <si>
-    <t>battle_kill</t>
-  </si>
-  <si>
-    <t>battle_kill1</t>
-  </si>
-  <si>
-    <t>battle_kill2</t>
-  </si>
-  <si>
-    <t>battle_kill3</t>
-  </si>
-  <si>
-    <t>battle_kill4</t>
-  </si>
-  <si>
-    <t>battle_kill_bg</t>
-  </si>
-  <si>
-    <t>battle_kill_icon</t>
-  </si>
-  <si>
-    <t>battle_kill_row</t>
-  </si>
-  <si>
-    <t>battle_map</t>
-  </si>
-  <si>
-    <t>battle_medicine</t>
-  </si>
-  <si>
-    <t>battle_medicine_bg</t>
-  </si>
-  <si>
-    <t>battle_mp</t>
-  </si>
-  <si>
-    <t>battle_other</t>
-  </si>
-  <si>
-    <t>battle_other1</t>
-  </si>
-  <si>
-    <t>battle_setup</t>
-  </si>
-  <si>
-    <t>battle_setup1</t>
-  </si>
-  <si>
-    <t>battle_setup_bg</t>
-  </si>
-  <si>
-    <t>battle_setup_other</t>
-  </si>
-  <si>
-    <t>battle_skill_add</t>
-  </si>
-  <si>
-    <t>battle_skill_bg</t>
-  </si>
-  <si>
-    <t>battle_skill_level</t>
-  </si>
-  <si>
-    <t>battle_time</t>
-  </si>
-  <si>
-    <t>SkillShape_Circle</t>
-  </si>
-  <si>
-    <t>sp_2144060812</t>
-  </si>
-  <si>
-    <t>SkillShape_Line</t>
-  </si>
-  <si>
-    <t>SkillShape_Sector</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>sp__1076193732</t>
-  </si>
-  <si>
-    <t>hero_show_attack</t>
-  </si>
-  <si>
-    <t>sp_1103995528</t>
-  </si>
-  <si>
-    <t>hero_show_back</t>
-  </si>
-  <si>
-    <t>hero_show_button_attack</t>
-  </si>
-  <si>
-    <t>hero_show_button_def</t>
-  </si>
-  <si>
-    <t>hero_show_button_hp</t>
-  </si>
-  <si>
-    <t>hero_show_button_move</t>
-  </si>
-  <si>
-    <t>hero_show_button_speed</t>
-  </si>
-  <si>
-    <t>hero_show_def</t>
-  </si>
-  <si>
-    <t>hero_show_hp</t>
-  </si>
-  <si>
-    <t>hero_show_move</t>
-  </si>
-  <si>
-    <t>hero_show_skin</t>
-  </si>
-  <si>
-    <t>hero_show_speed</t>
-  </si>
-  <si>
-    <t>hero_show_tower</t>
-  </si>
-  <si>
-    <t>loading_item</t>
-  </si>
-  <si>
-    <t>sp_371046582</t>
-  </si>
-  <si>
-    <t>loading_other</t>
-  </si>
-  <si>
-    <t>loading_other1</t>
-  </si>
-  <si>
-    <t>lobby_achieve</t>
-  </si>
-  <si>
-    <t>sp_493391422</t>
-  </si>
-  <si>
-    <t>lobby_activity</t>
-  </si>
-  <si>
-    <t>lobby_bg</t>
-  </si>
-  <si>
-    <t>lobby_chat_bg</t>
-  </si>
-  <si>
-    <t>lobby_chat_speak</t>
-  </si>
-  <si>
-    <t>lobby_energy</t>
-  </si>
-  <si>
-    <t>lobby_equip</t>
-  </si>
-  <si>
-    <t>lobby_friend</t>
-  </si>
-  <si>
-    <t>lobby_hero</t>
-  </si>
-  <si>
-    <t>lobby_mail</t>
-  </si>
-  <si>
-    <t>lobby_misson</t>
-  </si>
-  <si>
-    <t>lobby_mobile</t>
-  </si>
-  <si>
-    <t>lobby_mode</t>
-  </si>
-  <si>
-    <t>lobby_player1</t>
-  </si>
-  <si>
-    <t>lobby_player2</t>
-  </si>
-  <si>
-    <t>lobby_player_bg</t>
-  </si>
-  <si>
-    <t>lobby_player_frame</t>
-  </si>
-  <si>
-    <t>lobby_rank</t>
-  </si>
-  <si>
-    <t>lobby_setup</t>
-  </si>
-  <si>
-    <t>lobby_shop</t>
-  </si>
-  <si>
-    <t>login_btn_login</t>
-  </si>
-  <si>
-    <t>sp_83733784</t>
-  </si>
-  <si>
-    <t>login_dian</t>
-  </si>
-  <si>
-    <t>login_server</t>
-  </si>
-  <si>
-    <t>match_job</t>
-  </si>
-  <si>
-    <t>sp_438571766</t>
-  </si>
-  <si>
-    <t>match_player</t>
-  </si>
-  <si>
-    <t>match_say</t>
-  </si>
-  <si>
-    <t>share_add</t>
-  </si>
-  <si>
-    <t>sp_1960007041</t>
-  </si>
-  <si>
-    <t>share_bg</t>
-  </si>
-  <si>
-    <t>share_bg1</t>
-  </si>
-  <si>
-    <t>share_bg2</t>
-  </si>
-  <si>
-    <t>share_bg3</t>
-  </si>
-  <si>
-    <t>share_button_yellow</t>
-  </si>
-  <si>
-    <t>share_chat</t>
-  </si>
-  <si>
-    <t>share_circle1</t>
-  </si>
-  <si>
-    <t>share_circle2</t>
-  </si>
-  <si>
-    <t>share_close</t>
-  </si>
-  <si>
-    <t>share_gold</t>
-  </si>
-  <si>
-    <t>share_hero_name</t>
-  </si>
-  <si>
-    <t>share_item</t>
-  </si>
-  <si>
-    <t>share_item_bg</t>
-  </si>
-  <si>
-    <t>share_item_select</t>
-  </si>
-  <si>
-    <t>share_line</t>
-  </si>
-  <si>
-    <t>share_other</t>
-  </si>
-  <si>
-    <t>share_other1</t>
-  </si>
-  <si>
-    <t>share_other2</t>
-  </si>
-  <si>
-    <t>share_other3</t>
-  </si>
-  <si>
-    <t>share_radar</t>
-  </si>
-  <si>
-    <t>share_radar_bg</t>
-  </si>
-  <si>
-    <t>share_silver</t>
-  </si>
-  <si>
-    <t>share_skill</t>
-  </si>
-  <si>
-    <t>share_skin1</t>
-  </si>
-  <si>
-    <t>share_slider</t>
-  </si>
-  <si>
-    <t>share_slider_bg</t>
-  </si>
-  <si>
-    <t>share_star</t>
-  </si>
-  <si>
-    <t>share_title</t>
-  </si>
-  <si>
-    <t>share_title1_bg</t>
-  </si>
-  <si>
-    <t>share_title1_bg1</t>
-  </si>
-  <si>
-    <t>share_title_bg</t>
-  </si>
-  <si>
-    <t>share_title_bg1</t>
-  </si>
-  <si>
-    <t>share_why</t>
-  </si>
-  <si>
-    <t>share_yes</t>
-  </si>
-  <si>
-    <t>shop_item_bg</t>
-  </si>
-  <si>
-    <t>sp_758489486</t>
-  </si>
-  <si>
-    <t>shop_other1</t>
-  </si>
-  <si>
-    <t>shop_other2</t>
-  </si>
-  <si>
-    <t>shop_other3</t>
-  </si>
-  <si>
-    <t>shop_other4</t>
-  </si>
-  <si>
-    <t>shop_other5</t>
-  </si>
-  <si>
-    <t>Skill100204</t>
-  </si>
-  <si>
-    <t>sp_267983427</t>
-  </si>
-  <si>
-    <t>Skill100205</t>
-  </si>
-  <si>
-    <t>Skill100206</t>
-  </si>
-  <si>
-    <t>Skill100404</t>
-  </si>
-  <si>
-    <t>Skill100405</t>
-  </si>
-  <si>
-    <t>Skill100406</t>
-  </si>
-  <si>
-    <t>Terrain</t>
-  </si>
-  <si>
-    <t>o_1026750565</t>
-  </si>
-  <si>
-    <t>ExampleCinemachine_DollyCartTimeline</t>
-  </si>
-  <si>
-    <t>.playable</t>
-  </si>
-  <si>
-    <t>s_161994958_refdep</t>
-  </si>
-  <si>
-    <t>ExampleGuideWindow</t>
-  </si>
-  <si>
-    <t>s__2009239190_refdep</t>
-  </si>
-  <si>
-    <t>ExampleHeroListWindow</t>
-  </si>
-  <si>
-    <t>ExampleLobbyWindow</t>
-  </si>
-  <si>
-    <t>ExampleMessageBoxWindow</t>
-  </si>
-  <si>
     <t>ExamplePlayerListWindow</t>
   </si>
   <si>
-    <t>s__48687258_refdep</t>
+    <t>o__929482883</t>
   </si>
   <si>
     <t>ExampleTestXLuaLevelCube.lua</t>
@@ -1308,7 +1320,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>1030043145</v>
+        <v>-43603534</v>
       </c>
       <c r="B4" s="3">
         <v>2130076485</v>
@@ -1328,7 +1340,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-1047153048</v>
+        <v>353122054</v>
       </c>
       <c r="B5" s="3">
         <v>1148303718</v>
@@ -1348,7 +1360,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1111317671</v>
+        <v>-1345210539</v>
       </c>
       <c r="B6" s="3">
         <v>-1255526873</v>
@@ -1368,7 +1380,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-1314513662</v>
+        <v>-1569711006</v>
       </c>
       <c r="B7" s="3">
         <v>-764457537</v>
@@ -1388,7 +1400,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-671828977</v>
+        <v>-142497276</v>
       </c>
       <c r="B8" s="3">
         <v>703074975</v>
@@ -1408,7 +1420,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-1822338762</v>
+        <v>-313295237</v>
       </c>
       <c r="B9" s="3">
         <v>-2004506147</v>
@@ -1428,7 +1440,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>2069627225</v>
+        <v>-1400159591</v>
       </c>
       <c r="B10" s="3">
         <v>1536776472</v>
@@ -1448,7 +1460,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-639390330</v>
+        <v>1184270234</v>
       </c>
       <c r="B11" s="3">
         <v>1536776472</v>
@@ -1468,7 +1480,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-247032076</v>
+        <v>-282685951</v>
       </c>
       <c r="B12" s="3">
         <v>-1919546133</v>
@@ -1488,7 +1500,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-914683150</v>
+        <v>1095841074</v>
       </c>
       <c r="B13" s="3">
         <v>-1919546133</v>
@@ -1508,7 +1520,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>1469057108</v>
+        <v>107612374</v>
       </c>
       <c r="B14" s="3">
         <v>-1919546133</v>
@@ -1528,7 +1540,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>563263933</v>
+        <v>2037292387</v>
       </c>
       <c r="B15" s="3">
         <v>-1919546133</v>
@@ -1548,7 +1560,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-1640052790</v>
+        <v>-421194383</v>
       </c>
       <c r="B16" s="3">
         <v>-1919546133</v>
@@ -1568,7 +1580,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>334986352</v>
+        <v>-541691251</v>
       </c>
       <c r="B17" s="3">
         <v>-1919546133</v>
@@ -1588,7 +1600,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>1656382229</v>
+        <v>840100977</v>
       </c>
       <c r="B18" s="3">
         <v>-1919546133</v>
@@ -1608,7 +1620,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>1191492675</v>
+        <v>864956468</v>
       </c>
       <c r="B19" s="3">
         <v>-1919546133</v>
@@ -1628,7 +1640,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>2125675024</v>
+        <v>-102373894</v>
       </c>
       <c r="B20" s="3">
         <v>-1919546133</v>
@@ -1648,7 +1660,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1961533316</v>
+        <v>-1963436767</v>
       </c>
       <c r="B21" s="3">
         <v>-1919546133</v>
@@ -1668,7 +1680,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>-1860432654</v>
+        <v>-308063552</v>
       </c>
       <c r="B22" s="3">
         <v>1325637814</v>
@@ -1688,7 +1700,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>-935725446</v>
+        <v>-1489958495</v>
       </c>
       <c r="B23" s="3">
         <v>1325637814</v>
@@ -1708,7 +1720,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>1652309691</v>
+        <v>-527501759</v>
       </c>
       <c r="B24" s="3">
         <v>1325637814</v>
@@ -1728,7 +1740,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1305370276</v>
+        <v>348130122</v>
       </c>
       <c r="B25" s="3">
         <v>1325637814</v>
@@ -1748,7 +1760,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1784042025</v>
+        <v>1322088809</v>
       </c>
       <c r="B26" s="3">
         <v>1325637814</v>
@@ -1768,7 +1780,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-692579849</v>
+        <v>-1288208721</v>
       </c>
       <c r="B27" s="3">
         <v>1325637814</v>
@@ -1788,7 +1800,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1479034210</v>
+        <v>27744446</v>
       </c>
       <c r="B28" s="3">
         <v>1325637814</v>
@@ -1808,7 +1820,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-1608441305</v>
+        <v>-1552741098</v>
       </c>
       <c r="B29" s="3">
         <v>1325637814</v>
@@ -1828,7 +1840,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>2073847480</v>
+        <v>571412406</v>
       </c>
       <c r="B30" s="3">
         <v>1325637814</v>
@@ -1848,7 +1860,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>1229683040</v>
+        <v>63195540</v>
       </c>
       <c r="B31" s="3">
         <v>1325637814</v>
@@ -1868,7 +1880,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>1889580147</v>
+        <v>629561774</v>
       </c>
       <c r="B32" s="3">
         <v>1325637814</v>
@@ -1888,7 +1900,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>698208992</v>
+        <v>1238630222</v>
       </c>
       <c r="B33" s="3">
         <v>1325637814</v>
@@ -1908,7 +1920,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>1741707445</v>
+        <v>-786912841</v>
       </c>
       <c r="B34" s="3">
         <v>1325637814</v>
@@ -1928,7 +1940,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>1334679678</v>
+        <v>1532061532</v>
       </c>
       <c r="B35" s="3">
         <v>-1405308702</v>
@@ -1948,7 +1960,7 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>203780964</v>
+        <v>1629998380</v>
       </c>
       <c r="B36" s="3">
         <v>-1405308702</v>
@@ -1968,7 +1980,7 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>904144584</v>
+        <v>639122904</v>
       </c>
       <c r="B37" s="3">
         <v>-1405308702</v>
@@ -1988,7 +2000,7 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>-1147649747</v>
+        <v>515074023</v>
       </c>
       <c r="B38" s="3">
         <v>-1405308702</v>
@@ -2008,7 +2020,7 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>1649820611</v>
+        <v>1073580985</v>
       </c>
       <c r="B39" s="3">
         <v>-1408754900</v>
@@ -2028,7 +2040,7 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>1784757519</v>
+        <v>26595986</v>
       </c>
       <c r="B40" s="3">
         <v>1311652878</v>
@@ -2048,7 +2060,7 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>41156671</v>
+        <v>899947362</v>
       </c>
       <c r="B41" s="3">
         <v>853849619</v>
@@ -2068,7 +2080,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>433278951</v>
+        <v>1973454126</v>
       </c>
       <c r="B42" s="3">
         <v>1498651392</v>
@@ -2088,7 +2100,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>1887145564</v>
+        <v>2035389835</v>
       </c>
       <c r="B43" s="3">
         <v>1498651392</v>
@@ -2108,7 +2120,7 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>797307857</v>
+        <v>-694959368</v>
       </c>
       <c r="B44" s="3">
         <v>1498651392</v>
@@ -2128,7 +2140,7 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>-337981905</v>
+        <v>877890684</v>
       </c>
       <c r="B45" s="3">
         <v>1498651392</v>
@@ -2148,7 +2160,7 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>153670792</v>
+        <v>1309873736</v>
       </c>
       <c r="B46" s="3">
         <v>1498651392</v>
@@ -2168,7 +2180,7 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>-1564951367</v>
+        <v>-1738771256</v>
       </c>
       <c r="B47" s="3">
         <v>1498651392</v>
@@ -2188,7 +2200,7 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>-59478781</v>
+        <v>845085017</v>
       </c>
       <c r="B48" s="3">
         <v>1498651392</v>
@@ -2208,7 +2220,7 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>-171116364</v>
+        <v>1083340791</v>
       </c>
       <c r="B49" s="3">
         <v>1498651392</v>
@@ -2228,7 +2240,7 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>1358693645</v>
+        <v>-1982149944</v>
       </c>
       <c r="B50" s="3">
         <v>1498651392</v>
@@ -2248,7 +2260,7 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-789027443</v>
+        <v>-1859275650</v>
       </c>
       <c r="B51" s="3">
         <v>1498651392</v>
@@ -2268,7 +2280,7 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>-521246146</v>
+        <v>-722856761</v>
       </c>
       <c r="B52" s="3">
         <v>1498651392</v>
@@ -2288,7 +2300,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-866621371</v>
+        <v>-1524713337</v>
       </c>
       <c r="B53" s="3">
         <v>1498651392</v>
@@ -2308,7 +2320,7 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>-1202190585</v>
+        <v>2069691582</v>
       </c>
       <c r="B54" s="3">
         <v>1498651392</v>
@@ -2328,7 +2340,7 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>-697777798</v>
+        <v>-2067689591</v>
       </c>
       <c r="B55" s="3">
         <v>1498651392</v>
@@ -2348,7 +2360,7 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>-822758644</v>
+        <v>1322766858</v>
       </c>
       <c r="B56" s="3">
         <v>1498651392</v>
@@ -2368,7 +2380,7 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>-683937367</v>
+        <v>-56346782</v>
       </c>
       <c r="B57" s="3">
         <v>1498651392</v>
@@ -2388,7 +2400,7 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>1656373698</v>
+        <v>-910155498</v>
       </c>
       <c r="B58" s="3">
         <v>1498651392</v>
@@ -2408,7 +2420,7 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>-1576961177</v>
+        <v>-1087198989</v>
       </c>
       <c r="B59" s="3">
         <v>1498651392</v>
@@ -2428,7 +2440,7 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>1210637086</v>
+        <v>700045954</v>
       </c>
       <c r="B60" s="3">
         <v>1498651392</v>
@@ -2448,7 +2460,7 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>1015097087</v>
+        <v>-1518697101</v>
       </c>
       <c r="B61" s="3">
         <v>1498651392</v>
@@ -2468,7 +2480,7 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>-1179819934</v>
+        <v>332702049</v>
       </c>
       <c r="B62" s="3">
         <v>1498651392</v>
@@ -2488,7 +2500,7 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>887404725</v>
+        <v>1254641608</v>
       </c>
       <c r="B63" s="3">
         <v>1498651392</v>
@@ -2508,7 +2520,7 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>1668790150</v>
+        <v>-1758040175</v>
       </c>
       <c r="B64" s="3">
         <v>1498651392</v>
@@ -2528,7 +2540,7 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>2000159984</v>
+        <v>-741209993</v>
       </c>
       <c r="B65" s="3">
         <v>1498651392</v>
@@ -2548,7 +2560,7 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>-828125338</v>
+        <v>-1504595486</v>
       </c>
       <c r="B66" s="3">
         <v>1498651392</v>
@@ -2568,7 +2580,7 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>-2000734508</v>
+        <v>-1970218940</v>
       </c>
       <c r="B67" s="3">
         <v>1498651392</v>
@@ -2588,7 +2600,7 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>-2120242522</v>
+        <v>1059562588</v>
       </c>
       <c r="B68" s="3">
         <v>1498651392</v>
@@ -2608,7 +2620,7 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>801904891</v>
+        <v>-1818089487</v>
       </c>
       <c r="B69" s="3">
         <v>1498651392</v>
@@ -2628,7 +2640,7 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>-1470467503</v>
+        <v>-507211087</v>
       </c>
       <c r="B70" s="3">
         <v>1498651392</v>
@@ -2648,7 +2660,7 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>337104583</v>
+        <v>1317175521</v>
       </c>
       <c r="B71" s="3">
         <v>1498651392</v>
@@ -2668,7 +2680,7 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>2090923639</v>
+        <v>1208046276</v>
       </c>
       <c r="B72" s="3">
         <v>1498651392</v>
@@ -2688,7 +2700,7 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>-963389618</v>
+        <v>1640139794</v>
       </c>
       <c r="B73" s="3">
         <v>1498651392</v>
@@ -2708,7 +2720,7 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>-873179829</v>
+        <v>-1064956911</v>
       </c>
       <c r="B74" s="3">
         <v>1498651392</v>
@@ -2728,7 +2740,7 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>-116491982</v>
+        <v>-471837231</v>
       </c>
       <c r="B75" s="3">
         <v>-143016780</v>
@@ -2748,7 +2760,7 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>-1735360998</v>
+        <v>-1893597714</v>
       </c>
       <c r="B76" s="3">
         <v>-143016780</v>
@@ -2768,7 +2780,7 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>1223135529</v>
+        <v>1564020823</v>
       </c>
       <c r="B77" s="3">
         <v>-143016780</v>
@@ -2788,7 +2800,7 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>-1900676780</v>
+        <v>466844940</v>
       </c>
       <c r="B78" s="3">
         <v>-228276413</v>
@@ -2808,7 +2820,7 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>-2078450133</v>
+        <v>383913513</v>
       </c>
       <c r="B79" s="3">
         <v>697093135</v>
@@ -2828,7 +2840,7 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-1710946484</v>
+        <v>-2085464241</v>
       </c>
       <c r="B80" s="3">
         <v>697093135</v>
@@ -2848,7 +2860,7 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>-957768232</v>
+        <v>-2119038656</v>
       </c>
       <c r="B81" s="3">
         <v>697093135</v>
@@ -2868,7 +2880,7 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>-2034364172</v>
+        <v>-1722432404</v>
       </c>
       <c r="B82" s="3">
         <v>697093135</v>
@@ -2888,7 +2900,7 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>-853281810</v>
+        <v>188640801</v>
       </c>
       <c r="B83" s="3">
         <v>697093135</v>
@@ -2908,7 +2920,7 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>-1945931504</v>
+        <v>235364774</v>
       </c>
       <c r="B84" s="3">
         <v>697093135</v>
@@ -2928,7 +2940,7 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>-500020199</v>
+        <v>696992793</v>
       </c>
       <c r="B85" s="3">
         <v>697093135</v>
@@ -2948,7 +2960,7 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>1757638406</v>
+        <v>23655109</v>
       </c>
       <c r="B86" s="3">
         <v>697093135</v>
@@ -2968,7 +2980,7 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>1988261967</v>
+        <v>-931073496</v>
       </c>
       <c r="B87" s="3">
         <v>697093135</v>
@@ -2988,7 +3000,7 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>-995549749</v>
+        <v>-97717887</v>
       </c>
       <c r="B88" s="3">
         <v>697093135</v>
@@ -3008,7 +3020,7 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>-2065132448</v>
+        <v>-975185005</v>
       </c>
       <c r="B89" s="3">
         <v>697093135</v>
@@ -3028,7 +3040,7 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>-469814560</v>
+        <v>1924659445</v>
       </c>
       <c r="B90" s="3">
         <v>697093135</v>
@@ -3048,7 +3060,7 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>-1709480205</v>
+        <v>-958996380</v>
       </c>
       <c r="B91" s="3">
         <v>697093135</v>
@@ -3068,7 +3080,7 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>140739289</v>
+        <v>1995980765</v>
       </c>
       <c r="B92" s="3">
         <v>-1099268540</v>
@@ -3088,7 +3100,7 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>-1608487925</v>
+        <v>-1058050040</v>
       </c>
       <c r="B93" s="3">
         <v>-1099268540</v>
@@ -3108,7 +3120,7 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>2105748090</v>
+        <v>1084938638</v>
       </c>
       <c r="B94" s="3">
         <v>-1099268540</v>
@@ -3128,7 +3140,7 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>789221405</v>
+        <v>1002826624</v>
       </c>
       <c r="B95" s="3">
         <v>-1080227996</v>
@@ -3148,7 +3160,7 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>1216959907</v>
+        <v>-259771830</v>
       </c>
       <c r="B96" s="3">
         <v>-1080227996</v>
@@ -3168,7 +3180,7 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>-476086870</v>
+        <v>-805204722</v>
       </c>
       <c r="B97" s="3">
         <v>-1080227996</v>
@@ -3188,7 +3200,7 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>-838689769</v>
+        <v>1848064447</v>
       </c>
       <c r="B98" s="3">
         <v>-1080227996</v>
@@ -3208,7 +3220,7 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>-1802325708</v>
+        <v>-717343573</v>
       </c>
       <c r="B99" s="3">
         <v>-1080227996</v>
@@ -3228,7 +3240,7 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>1989727680</v>
+        <v>-2100160194</v>
       </c>
       <c r="B100" s="3">
         <v>-1080227996</v>
@@ -3248,7 +3260,7 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>-1939875048</v>
+        <v>-1081868418</v>
       </c>
       <c r="B101" s="3">
         <v>-1080227996</v>
@@ -3268,7 +3280,7 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-1464485623</v>
+        <v>-1284985015</v>
       </c>
       <c r="B102" s="3">
         <v>-1080227996</v>
@@ -3288,7 +3300,7 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-1951531947</v>
+        <v>-918466319</v>
       </c>
       <c r="B103" s="3">
         <v>-1080227996</v>
@@ -3308,7 +3320,7 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>-1046567820</v>
+        <v>1480263381</v>
       </c>
       <c r="B104" s="3">
         <v>-1080227996</v>
@@ -3328,7 +3340,7 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>1068522423</v>
+        <v>1334675600</v>
       </c>
       <c r="B105" s="3">
         <v>-1080227996</v>
@@ -3348,7 +3360,7 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>-300423134</v>
+        <v>-1579415345</v>
       </c>
       <c r="B106" s="3">
         <v>-1080227996</v>
@@ -3368,7 +3380,7 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>1006821704</v>
+        <v>1628325350</v>
       </c>
       <c r="B107" s="3">
         <v>-1080227996</v>
@@ -3388,7 +3400,7 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>-807058300</v>
+        <v>-357233619</v>
       </c>
       <c r="B108" s="3">
         <v>-1080227996</v>
@@ -3408,7 +3420,7 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>861913762</v>
+        <v>505339634</v>
       </c>
       <c r="B109" s="3">
         <v>-1080227996</v>
@@ -3428,7 +3440,7 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>-754517366</v>
+        <v>1152926494</v>
       </c>
       <c r="B110" s="3">
         <v>-1080227996</v>
@@ -3448,7 +3460,7 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>130754166</v>
+        <v>140595361</v>
       </c>
       <c r="B111" s="3">
         <v>-1080227996</v>
@@ -3468,7 +3480,7 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>125947051</v>
+        <v>707591588</v>
       </c>
       <c r="B112" s="3">
         <v>-1080227996</v>
@@ -3488,7 +3500,7 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-1770038881</v>
+        <v>-1514858486</v>
       </c>
       <c r="B113" s="3">
         <v>-1080227996</v>
@@ -3508,7 +3520,7 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>-619684109</v>
+        <v>-854019769</v>
       </c>
       <c r="B114" s="3">
         <v>-1080227996</v>
@@ -3528,7 +3540,7 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>1129969276</v>
+        <v>782104161</v>
       </c>
       <c r="B115" s="3">
         <v>1006479116</v>
@@ -3548,7 +3560,7 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>2087578356</v>
+        <v>-1963378514</v>
       </c>
       <c r="B116" s="3">
         <v>1006479116</v>
@@ -3568,7 +3580,7 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>-1682130970</v>
+        <v>-1164818106</v>
       </c>
       <c r="B117" s="3">
         <v>1006479116</v>
@@ -3588,7 +3600,7 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>-1517097132</v>
+        <v>-1474971870</v>
       </c>
       <c r="B118" s="3">
         <v>851451727</v>
@@ -3608,7 +3620,7 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>-1065385250</v>
+        <v>1738261024</v>
       </c>
       <c r="B119" s="3">
         <v>851451727</v>
@@ -3628,7 +3640,7 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>1033151513</v>
+        <v>-42607700</v>
       </c>
       <c r="B120" s="3">
         <v>851451727</v>
@@ -3648,7 +3660,7 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>-2058283314</v>
+        <v>1915804889</v>
       </c>
       <c r="B121" s="3">
         <v>303790042</v>
@@ -3668,7 +3680,7 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>2029688188</v>
+        <v>-1999695041</v>
       </c>
       <c r="B122" s="3">
         <v>303790042</v>
@@ -3688,7 +3700,7 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>-1469368861</v>
+        <v>-409616100</v>
       </c>
       <c r="B123" s="3">
         <v>303790042</v>
@@ -3708,7 +3720,7 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>-683434627</v>
+        <v>-1755408102</v>
       </c>
       <c r="B124" s="3">
         <v>303790042</v>
@@ -3728,7 +3740,7 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>1967723194</v>
+        <v>1347112041</v>
       </c>
       <c r="B125" s="3">
         <v>303790042</v>
@@ -3748,7 +3760,7 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>1396964412</v>
+        <v>528324918</v>
       </c>
       <c r="B126" s="3">
         <v>303790042</v>
@@ -3768,7 +3780,7 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>1716523581</v>
+        <v>368814988</v>
       </c>
       <c r="B127" s="3">
         <v>303790042</v>
@@ -3788,7 +3800,7 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>1121214035</v>
+        <v>-1305479403</v>
       </c>
       <c r="B128" s="3">
         <v>303790042</v>
@@ -3808,7 +3820,7 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>1691528606</v>
+        <v>-751699408</v>
       </c>
       <c r="B129" s="3">
         <v>303790042</v>
@@ -3828,7 +3840,7 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-390587125</v>
+        <v>-298004222</v>
       </c>
       <c r="B130" s="3">
         <v>303790042</v>
@@ -3848,7 +3860,7 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>1704422050</v>
+        <v>2063444740</v>
       </c>
       <c r="B131" s="3">
         <v>303790042</v>
@@ -3868,7 +3880,7 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>-1536911730</v>
+        <v>546010951</v>
       </c>
       <c r="B132" s="3">
         <v>303790042</v>
@@ -3888,7 +3900,7 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>413905320</v>
+        <v>-186252357</v>
       </c>
       <c r="B133" s="3">
         <v>303790042</v>
@@ -3908,7 +3920,7 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-48817825</v>
+        <v>-1163805379</v>
       </c>
       <c r="B134" s="3">
         <v>303790042</v>
@@ -3928,7 +3940,7 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>-959482885</v>
+        <v>-1446564755</v>
       </c>
       <c r="B135" s="3">
         <v>303790042</v>
@@ -3948,7 +3960,7 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>2073649712</v>
+        <v>-1998770017</v>
       </c>
       <c r="B136" s="3">
         <v>303790042</v>
@@ -3968,7 +3980,7 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>1029219947</v>
+        <v>-1526083189</v>
       </c>
       <c r="B137" s="3">
         <v>303790042</v>
@@ -3988,7 +4000,7 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>-1791028253</v>
+        <v>1893386912</v>
       </c>
       <c r="B138" s="3">
         <v>303790042</v>
@@ -4008,7 +4020,7 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>-278736850</v>
+        <v>-741823492</v>
       </c>
       <c r="B139" s="3">
         <v>303790042</v>
@@ -4028,7 +4040,7 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>64477520</v>
+        <v>1940323955</v>
       </c>
       <c r="B140" s="3">
         <v>303790042</v>
@@ -4048,7 +4060,7 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>1525107119</v>
+        <v>-1859099331</v>
       </c>
       <c r="B141" s="3">
         <v>303790042</v>
@@ -4068,7 +4080,7 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>1894508942</v>
+        <v>-1559092592</v>
       </c>
       <c r="B142" s="3">
         <v>303790042</v>
@@ -4088,7 +4100,7 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>786946575</v>
+        <v>-448009052</v>
       </c>
       <c r="B143" s="3">
         <v>303790042</v>
@@ -4108,7 +4120,7 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>1743712584</v>
+        <v>1276775457</v>
       </c>
       <c r="B144" s="3">
         <v>303790042</v>
@@ -4128,7 +4140,7 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>-1666523598</v>
+        <v>1150803779</v>
       </c>
       <c r="B145" s="3">
         <v>303790042</v>
@@ -4148,7 +4160,7 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-209439764</v>
+        <v>-1320056155</v>
       </c>
       <c r="B146" s="3">
         <v>303790042</v>
@@ -4168,7 +4180,7 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-1975734379</v>
+        <v>-1553084039</v>
       </c>
       <c r="B147" s="3">
         <v>303790042</v>
@@ -4188,7 +4200,7 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>1273481327</v>
+        <v>896878296</v>
       </c>
       <c r="B148" s="3">
         <v>303790042</v>
@@ -4208,7 +4220,7 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>785293368</v>
+        <v>-2061382551</v>
       </c>
       <c r="B149" s="3">
         <v>303790042</v>
@@ -4228,7 +4240,7 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>-594615111</v>
+        <v>1413690708</v>
       </c>
       <c r="B150" s="3">
         <v>303790042</v>
@@ -4248,7 +4260,7 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>-509427602</v>
+        <v>300428253</v>
       </c>
       <c r="B151" s="3">
         <v>303790042</v>
@@ -4268,7 +4280,7 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>-522008429</v>
+        <v>395357917</v>
       </c>
       <c r="B152" s="3">
         <v>303790042</v>
@@ -4288,7 +4300,7 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>1223491875</v>
+        <v>1434374482</v>
       </c>
       <c r="B153" s="3">
         <v>303790042</v>
@@ -4308,7 +4320,7 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>1068025648</v>
+        <v>847719904</v>
       </c>
       <c r="B154" s="3">
         <v>303790042</v>
@@ -4328,7 +4340,7 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>-1281428191</v>
+        <v>2072568</v>
       </c>
       <c r="B155" s="3">
         <v>303790042</v>
@@ -4348,7 +4360,7 @@
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>559760484</v>
+        <v>27520353</v>
       </c>
       <c r="B156" s="3">
         <v>779000644</v>
@@ -4368,7 +4380,7 @@
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>1147450703</v>
+        <v>1709039345</v>
       </c>
       <c r="B157" s="3">
         <v>779000644</v>
@@ -4388,7 +4400,7 @@
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>-555765293</v>
+        <v>-1077933149</v>
       </c>
       <c r="B158" s="3">
         <v>779000644</v>
@@ -4408,7 +4420,7 @@
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>-1008309707</v>
+        <v>-1904578880</v>
       </c>
       <c r="B159" s="3">
         <v>779000644</v>
@@ -4428,7 +4440,7 @@
     </row>
     <row r="160">
       <c r="A160" s="3">
-        <v>1649328148</v>
+        <v>1803091076</v>
       </c>
       <c r="B160" s="3">
         <v>779000644</v>
@@ -4448,7 +4460,7 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>1483365187</v>
+        <v>-1850715426</v>
       </c>
       <c r="B161" s="3">
         <v>779000644</v>
@@ -4468,7 +4480,7 @@
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>488959337</v>
+        <v>1472816115</v>
       </c>
       <c r="B162" s="3">
         <v>1205799434</v>
@@ -4488,7 +4500,7 @@
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>-258823006</v>
+        <v>121024300</v>
       </c>
       <c r="B163" s="3">
         <v>1205799434</v>
@@ -4508,7 +4520,7 @@
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>-877025943</v>
+        <v>-1053064427</v>
       </c>
       <c r="B164" s="3">
         <v>1205799434</v>
@@ -4528,7 +4540,7 @@
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>-1928104510</v>
+        <v>-849783918</v>
       </c>
       <c r="B165" s="3">
         <v>1205799434</v>
@@ -4548,7 +4560,7 @@
     </row>
     <row r="166">
       <c r="A166" s="3">
-        <v>233779722</v>
+        <v>-1607573691</v>
       </c>
       <c r="B166" s="3">
         <v>1205799434</v>
@@ -4568,7 +4580,7 @@
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>575019724</v>
+        <v>-1593909738</v>
       </c>
       <c r="B167" s="3">
         <v>1205799434</v>
@@ -4588,7 +4600,7 @@
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>-1924748440</v>
+        <v>-1277009709</v>
       </c>
       <c r="B168" s="3">
         <v>1993197872</v>
@@ -4608,7 +4620,7 @@
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>1203732579</v>
+        <v>1131209270</v>
       </c>
       <c r="B169" s="3">
         <v>1753185237</v>
@@ -4628,7 +4640,7 @@
     </row>
     <row r="170">
       <c r="A170" s="3">
-        <v>-693953037</v>
+        <v>623921494</v>
       </c>
       <c r="B170" s="3">
         <v>1753185237</v>
@@ -4640,7 +4652,7 @@
         <v>22</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F170" s="3">
         <v>15</v>
@@ -4648,19 +4660,19 @@
     </row>
     <row r="171">
       <c r="A171" s="3">
-        <v>437101228</v>
+        <v>-1796692520</v>
       </c>
       <c r="B171" s="3">
         <v>1553275941</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F171" s="3">
         <v>15</v>
@@ -4668,19 +4680,19 @@
     </row>
     <row r="172">
       <c r="A172" s="3">
-        <v>1925488967</v>
+        <v>597335385</v>
       </c>
       <c r="B172" s="3">
         <v>417181438</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F172" s="3">
         <v>15</v>
@@ -4688,19 +4700,19 @@
     </row>
     <row r="173">
       <c r="A173" s="3">
-        <v>553737605</v>
+        <v>-1247648687</v>
       </c>
       <c r="B173" s="3">
         <v>-1422368536</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F173" s="3">
         <v>15</v>
@@ -4708,19 +4720,19 @@
     </row>
     <row r="174">
       <c r="A174" s="3">
-        <v>-593267104</v>
+        <v>-770095150</v>
       </c>
       <c r="B174" s="3">
         <v>-41951286</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>88</v>
+        <v>248</v>
       </c>
       <c r="F174" s="3">
         <v>15</v>
@@ -4728,19 +4740,19 @@
     </row>
     <row r="175">
       <c r="A175" s="3">
-        <v>1130140136</v>
+        <v>-948994899</v>
       </c>
       <c r="B175" s="3">
         <v>498502262</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F175" s="3">
         <v>15</v>
@@ -4748,19 +4760,19 @@
     </row>
     <row r="176">
       <c r="A176" s="3">
-        <v>-1382448832</v>
+        <v>-1023799960</v>
       </c>
       <c r="B176" s="3">
         <v>2118059982</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F176" s="3">
         <v>26</v>
@@ -4768,19 +4780,19 @@
     </row>
     <row r="177">
       <c r="A177" s="3">
-        <v>139913362</v>
+        <v>-1040212945</v>
       </c>
       <c r="B177" s="3">
         <v>2118059982</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F177" s="3">
         <v>26</v>
@@ -4788,19 +4800,19 @@
     </row>
     <row r="178">
       <c r="A178" s="3">
-        <v>-901086922</v>
+        <v>1051206834</v>
       </c>
       <c r="B178" s="3">
         <v>2118059982</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F178" s="3">
         <v>26</v>
@@ -4808,19 +4820,19 @@
     </row>
     <row r="179">
       <c r="A179" s="3">
-        <v>2125618822</v>
+        <v>-807250027</v>
       </c>
       <c r="B179" s="3">
         <v>-1278219496</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F179" s="3">
         <v>26</v>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>fileId</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>扩展名枚举值</t>
+  </si>
+  <si>
+    <t>StrayFogHotfixAsmdefStaticSetting</t>
+  </si>
+  <si>
+    <t>.asset</t>
+  </si>
+  <si>
+    <t>a_231799851</t>
   </si>
   <si>
     <t>GuideMaskShader</t>
@@ -1242,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -1320,10 +1329,10 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-43603534</v>
+        <v>291557865</v>
       </c>
       <c r="B4" s="3">
-        <v>2130076485</v>
+        <v>27702436</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1335,15 +1344,15 @@
         <v>17</v>
       </c>
       <c r="F4" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>353122054</v>
+        <v>-43603534</v>
       </c>
       <c r="B5" s="3">
-        <v>1148303718</v>
+        <v>2130076485</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -1355,15 +1364,15 @@
         <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1345210539</v>
+        <v>353122054</v>
       </c>
       <c r="B6" s="3">
-        <v>-1255526873</v>
+        <v>1148303718</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -1375,84 +1384,84 @@
         <v>23</v>
       </c>
       <c r="F6" s="3">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-1569711006</v>
+        <v>-1345210539</v>
       </c>
       <c r="B7" s="3">
-        <v>-764457537</v>
+        <v>-1255526873</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-142497276</v>
+        <v>-1569711006</v>
       </c>
       <c r="B8" s="3">
-        <v>703074975</v>
+        <v>-764457537</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-313295237</v>
+        <v>-142497276</v>
       </c>
       <c r="B9" s="3">
-        <v>-2004506147</v>
+        <v>703074975</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-1400159591</v>
+        <v>-313295237</v>
       </c>
       <c r="B10" s="3">
-        <v>1536776472</v>
+        <v>-2004506147</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3">
         <v>15</v>
@@ -1460,19 +1469,19 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>1184270234</v>
+        <v>-1400159591</v>
       </c>
       <c r="B11" s="3">
         <v>1536776472</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3">
         <v>15</v>
@@ -1480,19 +1489,19 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-282685951</v>
+        <v>1184270234</v>
       </c>
       <c r="B12" s="3">
-        <v>-1919546133</v>
+        <v>1536776472</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3">
         <v>15</v>
@@ -1500,19 +1509,19 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>1095841074</v>
+        <v>-282685951</v>
       </c>
       <c r="B13" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3">
         <v>15</v>
@@ -1520,19 +1529,19 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>107612374</v>
+        <v>1095841074</v>
       </c>
       <c r="B14" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3">
         <v>15</v>
@@ -1540,19 +1549,19 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>2037292387</v>
+        <v>107612374</v>
       </c>
       <c r="B15" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3">
         <v>15</v>
@@ -1560,19 +1569,19 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-421194383</v>
+        <v>2037292387</v>
       </c>
       <c r="B16" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3">
         <v>15</v>
@@ -1580,19 +1589,19 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>-541691251</v>
+        <v>-421194383</v>
       </c>
       <c r="B17" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3">
         <v>15</v>
@@ -1600,19 +1609,19 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>840100977</v>
+        <v>-541691251</v>
       </c>
       <c r="B18" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3">
         <v>15</v>
@@ -1620,19 +1629,19 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>864956468</v>
+        <v>840100977</v>
       </c>
       <c r="B19" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="3">
         <v>15</v>
@@ -1640,19 +1649,19 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-102373894</v>
+        <v>864956468</v>
       </c>
       <c r="B20" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="3">
         <v>15</v>
@@ -1660,19 +1669,19 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1963436767</v>
+        <v>-102373894</v>
       </c>
       <c r="B21" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="3">
         <v>15</v>
@@ -1680,27 +1689,27 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>-308063552</v>
+        <v>-1963436767</v>
       </c>
       <c r="B22" s="3">
-        <v>1325637814</v>
+        <v>-1919546133</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>-1489958495</v>
+        <v>-308063552</v>
       </c>
       <c r="B23" s="3">
         <v>1325637814</v>
@@ -1709,10 +1718,10 @@
         <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="3">
         <v>23</v>
@@ -1720,19 +1729,19 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-527501759</v>
+        <v>-1489958495</v>
       </c>
       <c r="B24" s="3">
         <v>1325637814</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3">
         <v>23</v>
@@ -1740,19 +1749,19 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>348130122</v>
+        <v>-527501759</v>
       </c>
       <c r="B25" s="3">
         <v>1325637814</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="3">
         <v>23</v>
@@ -1760,19 +1769,19 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1322088809</v>
+        <v>348130122</v>
       </c>
       <c r="B26" s="3">
         <v>1325637814</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="3">
         <v>23</v>
@@ -1780,19 +1789,19 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-1288208721</v>
+        <v>1322088809</v>
       </c>
       <c r="B27" s="3">
         <v>1325637814</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="3">
         <v>23</v>
@@ -1800,19 +1809,19 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>27744446</v>
+        <v>-1288208721</v>
       </c>
       <c r="B28" s="3">
         <v>1325637814</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="3">
         <v>23</v>
@@ -1820,19 +1829,19 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-1552741098</v>
+        <v>27744446</v>
       </c>
       <c r="B29" s="3">
         <v>1325637814</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="3">
         <v>23</v>
@@ -1840,19 +1849,19 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>571412406</v>
+        <v>-1552741098</v>
       </c>
       <c r="B30" s="3">
         <v>1325637814</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="3">
         <v>23</v>
@@ -1860,19 +1869,19 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>63195540</v>
+        <v>571412406</v>
       </c>
       <c r="B31" s="3">
         <v>1325637814</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="3">
         <v>23</v>
@@ -1880,19 +1889,19 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>629561774</v>
+        <v>63195540</v>
       </c>
       <c r="B32" s="3">
         <v>1325637814</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="3">
         <v>23</v>
@@ -1900,19 +1909,19 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>1238630222</v>
+        <v>629561774</v>
       </c>
       <c r="B33" s="3">
         <v>1325637814</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="3">
         <v>23</v>
@@ -1920,19 +1929,19 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>-786912841</v>
+        <v>1238630222</v>
       </c>
       <c r="B34" s="3">
         <v>1325637814</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="3">
         <v>23</v>
@@ -1940,27 +1949,27 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>1532061532</v>
+        <v>-786912841</v>
       </c>
       <c r="B35" s="3">
-        <v>-1405308702</v>
+        <v>1325637814</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>1629998380</v>
+        <v>1532061532</v>
       </c>
       <c r="B36" s="3">
         <v>-1405308702</v>
@@ -1969,10 +1978,10 @@
         <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1980,19 +1989,19 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>639122904</v>
+        <v>1629998380</v>
       </c>
       <c r="B37" s="3">
         <v>-1405308702</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -2000,19 +2009,19 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>515074023</v>
+        <v>639122904</v>
       </c>
       <c r="B38" s="3">
         <v>-1405308702</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -2020,19 +2029,19 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>1073580985</v>
+        <v>515074023</v>
       </c>
       <c r="B39" s="3">
-        <v>-1408754900</v>
+        <v>-1405308702</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -2040,16 +2049,16 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>26595986</v>
+        <v>1073580985</v>
       </c>
       <c r="B40" s="3">
-        <v>1311652878</v>
+        <v>-1408754900</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>95</v>
@@ -2060,19 +2069,19 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>899947362</v>
+        <v>26595986</v>
       </c>
       <c r="B41" s="3">
-        <v>853849619</v>
+        <v>1311652878</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2080,19 +2089,19 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>1973454126</v>
+        <v>899947362</v>
       </c>
       <c r="B42" s="3">
-        <v>1498651392</v>
+        <v>853849619</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2100,19 +2109,19 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>2035389835</v>
+        <v>1973454126</v>
       </c>
       <c r="B43" s="3">
         <v>1498651392</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2120,19 +2129,19 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>-694959368</v>
+        <v>2035389835</v>
       </c>
       <c r="B44" s="3">
         <v>1498651392</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2140,19 +2149,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>877890684</v>
+        <v>-694959368</v>
       </c>
       <c r="B45" s="3">
         <v>1498651392</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2160,19 +2169,19 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>1309873736</v>
+        <v>877890684</v>
       </c>
       <c r="B46" s="3">
         <v>1498651392</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2180,19 +2189,19 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>-1738771256</v>
+        <v>1309873736</v>
       </c>
       <c r="B47" s="3">
         <v>1498651392</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2200,19 +2209,19 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>845085017</v>
+        <v>-1738771256</v>
       </c>
       <c r="B48" s="3">
         <v>1498651392</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2220,19 +2229,19 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>1083340791</v>
+        <v>845085017</v>
       </c>
       <c r="B49" s="3">
         <v>1498651392</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2240,19 +2249,19 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>-1982149944</v>
+        <v>1083340791</v>
       </c>
       <c r="B50" s="3">
         <v>1498651392</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2260,19 +2269,19 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-1859275650</v>
+        <v>-1982149944</v>
       </c>
       <c r="B51" s="3">
         <v>1498651392</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2280,19 +2289,19 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>-722856761</v>
+        <v>-1859275650</v>
       </c>
       <c r="B52" s="3">
         <v>1498651392</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2300,19 +2309,19 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-1524713337</v>
+        <v>-722856761</v>
       </c>
       <c r="B53" s="3">
         <v>1498651392</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2320,19 +2329,19 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>2069691582</v>
+        <v>-1524713337</v>
       </c>
       <c r="B54" s="3">
         <v>1498651392</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2340,19 +2349,19 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>-2067689591</v>
+        <v>2069691582</v>
       </c>
       <c r="B55" s="3">
         <v>1498651392</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2360,19 +2369,19 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>1322766858</v>
+        <v>-2067689591</v>
       </c>
       <c r="B56" s="3">
         <v>1498651392</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2380,19 +2389,19 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>-56346782</v>
+        <v>1322766858</v>
       </c>
       <c r="B57" s="3">
         <v>1498651392</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2400,19 +2409,19 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>-910155498</v>
+        <v>-56346782</v>
       </c>
       <c r="B58" s="3">
         <v>1498651392</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2420,19 +2429,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>-1087198989</v>
+        <v>-910155498</v>
       </c>
       <c r="B59" s="3">
         <v>1498651392</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2440,19 +2449,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>700045954</v>
+        <v>-1087198989</v>
       </c>
       <c r="B60" s="3">
         <v>1498651392</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2460,19 +2469,19 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>-1518697101</v>
+        <v>700045954</v>
       </c>
       <c r="B61" s="3">
         <v>1498651392</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2480,19 +2489,19 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>332702049</v>
+        <v>-1518697101</v>
       </c>
       <c r="B62" s="3">
         <v>1498651392</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2500,19 +2509,19 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>1254641608</v>
+        <v>332702049</v>
       </c>
       <c r="B63" s="3">
         <v>1498651392</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2520,19 +2529,19 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>-1758040175</v>
+        <v>1254641608</v>
       </c>
       <c r="B64" s="3">
         <v>1498651392</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2540,19 +2549,19 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>-741209993</v>
+        <v>-1758040175</v>
       </c>
       <c r="B65" s="3">
         <v>1498651392</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2560,19 +2569,19 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>-1504595486</v>
+        <v>-741209993</v>
       </c>
       <c r="B66" s="3">
         <v>1498651392</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2580,19 +2589,19 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>-1970218940</v>
+        <v>-1504595486</v>
       </c>
       <c r="B67" s="3">
         <v>1498651392</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2600,19 +2609,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>1059562588</v>
+        <v>-1970218940</v>
       </c>
       <c r="B68" s="3">
         <v>1498651392</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2620,19 +2629,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>-1818089487</v>
+        <v>1059562588</v>
       </c>
       <c r="B69" s="3">
         <v>1498651392</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2640,19 +2649,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>-507211087</v>
+        <v>-1818089487</v>
       </c>
       <c r="B70" s="3">
         <v>1498651392</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2660,19 +2669,19 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>1317175521</v>
+        <v>-507211087</v>
       </c>
       <c r="B71" s="3">
         <v>1498651392</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2680,19 +2689,19 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>1208046276</v>
+        <v>1317175521</v>
       </c>
       <c r="B72" s="3">
         <v>1498651392</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2700,19 +2709,19 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>1640139794</v>
+        <v>1208046276</v>
       </c>
       <c r="B73" s="3">
         <v>1498651392</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2720,19 +2729,19 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>-1064956911</v>
+        <v>1640139794</v>
       </c>
       <c r="B74" s="3">
         <v>1498651392</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2740,19 +2749,19 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>-471837231</v>
+        <v>-1064956911</v>
       </c>
       <c r="B75" s="3">
-        <v>-143016780</v>
+        <v>1498651392</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2760,19 +2769,19 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>-1893597714</v>
+        <v>-471837231</v>
       </c>
       <c r="B76" s="3">
         <v>-143016780</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2780,19 +2789,19 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>1564020823</v>
+        <v>-1893597714</v>
       </c>
       <c r="B77" s="3">
         <v>-143016780</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2800,19 +2809,19 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>466844940</v>
+        <v>1564020823</v>
       </c>
       <c r="B78" s="3">
-        <v>-228276413</v>
+        <v>-143016780</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2820,19 +2829,19 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>383913513</v>
+        <v>466844940</v>
       </c>
       <c r="B79" s="3">
-        <v>697093135</v>
+        <v>-228276413</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2840,19 +2849,19 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-2085464241</v>
+        <v>383913513</v>
       </c>
       <c r="B80" s="3">
         <v>697093135</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2860,19 +2869,19 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>-2119038656</v>
+        <v>-2085464241</v>
       </c>
       <c r="B81" s="3">
         <v>697093135</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2880,19 +2889,19 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>-1722432404</v>
+        <v>-2119038656</v>
       </c>
       <c r="B82" s="3">
         <v>697093135</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2900,19 +2909,19 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>188640801</v>
+        <v>-1722432404</v>
       </c>
       <c r="B83" s="3">
         <v>697093135</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2920,19 +2929,19 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>235364774</v>
+        <v>188640801</v>
       </c>
       <c r="B84" s="3">
         <v>697093135</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2940,19 +2949,19 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>696992793</v>
+        <v>235364774</v>
       </c>
       <c r="B85" s="3">
         <v>697093135</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2960,19 +2969,19 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>23655109</v>
+        <v>696992793</v>
       </c>
       <c r="B86" s="3">
         <v>697093135</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2980,19 +2989,19 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>-931073496</v>
+        <v>23655109</v>
       </c>
       <c r="B87" s="3">
         <v>697093135</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -3000,19 +3009,19 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>-97717887</v>
+        <v>-931073496</v>
       </c>
       <c r="B88" s="3">
         <v>697093135</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -3020,19 +3029,19 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>-975185005</v>
+        <v>-97717887</v>
       </c>
       <c r="B89" s="3">
         <v>697093135</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3040,19 +3049,19 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>1924659445</v>
+        <v>-975185005</v>
       </c>
       <c r="B90" s="3">
         <v>697093135</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -3060,19 +3069,19 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>-958996380</v>
+        <v>1924659445</v>
       </c>
       <c r="B91" s="3">
         <v>697093135</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3080,19 +3089,19 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>1995980765</v>
+        <v>-958996380</v>
       </c>
       <c r="B92" s="3">
-        <v>-1099268540</v>
+        <v>697093135</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -3100,19 +3109,19 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>-1058050040</v>
+        <v>1995980765</v>
       </c>
       <c r="B93" s="3">
         <v>-1099268540</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -3120,19 +3129,19 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>1084938638</v>
+        <v>-1058050040</v>
       </c>
       <c r="B94" s="3">
         <v>-1099268540</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3140,19 +3149,19 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>1002826624</v>
+        <v>1084938638</v>
       </c>
       <c r="B95" s="3">
-        <v>-1080227996</v>
+        <v>-1099268540</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -3160,19 +3169,19 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>-259771830</v>
+        <v>1002826624</v>
       </c>
       <c r="B96" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3180,19 +3189,19 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>-805204722</v>
+        <v>-259771830</v>
       </c>
       <c r="B97" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -3200,19 +3209,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>1848064447</v>
+        <v>-805204722</v>
       </c>
       <c r="B98" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3220,19 +3229,19 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>-717343573</v>
+        <v>1848064447</v>
       </c>
       <c r="B99" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3240,19 +3249,19 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>-2100160194</v>
+        <v>-717343573</v>
       </c>
       <c r="B100" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3260,19 +3269,19 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>-1081868418</v>
+        <v>-2100160194</v>
       </c>
       <c r="B101" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3280,19 +3289,19 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-1284985015</v>
+        <v>-1081868418</v>
       </c>
       <c r="B102" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3300,19 +3309,19 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-918466319</v>
+        <v>-1284985015</v>
       </c>
       <c r="B103" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3320,19 +3329,19 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>1480263381</v>
+        <v>-918466319</v>
       </c>
       <c r="B104" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3340,19 +3349,19 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>1334675600</v>
+        <v>1480263381</v>
       </c>
       <c r="B105" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3360,19 +3369,19 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>-1579415345</v>
+        <v>1334675600</v>
       </c>
       <c r="B106" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3380,19 +3389,19 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>1628325350</v>
+        <v>-1579415345</v>
       </c>
       <c r="B107" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3400,19 +3409,19 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>-357233619</v>
+        <v>1628325350</v>
       </c>
       <c r="B108" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3420,19 +3429,19 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>505339634</v>
+        <v>-357233619</v>
       </c>
       <c r="B109" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3440,19 +3449,19 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>1152926494</v>
+        <v>505339634</v>
       </c>
       <c r="B110" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -3460,19 +3469,19 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>140595361</v>
+        <v>1152926494</v>
       </c>
       <c r="B111" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -3480,19 +3489,19 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>707591588</v>
+        <v>140595361</v>
       </c>
       <c r="B112" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -3500,19 +3509,19 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-1514858486</v>
+        <v>707591588</v>
       </c>
       <c r="B113" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3520,19 +3529,19 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>-854019769</v>
+        <v>-1514858486</v>
       </c>
       <c r="B114" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -3540,19 +3549,19 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>782104161</v>
+        <v>-854019769</v>
       </c>
       <c r="B115" s="3">
-        <v>1006479116</v>
+        <v>-1080227996</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -3560,19 +3569,19 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>-1963378514</v>
+        <v>782104161</v>
       </c>
       <c r="B116" s="3">
         <v>1006479116</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -3580,19 +3589,19 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>-1164818106</v>
+        <v>-1963378514</v>
       </c>
       <c r="B117" s="3">
         <v>1006479116</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -3600,19 +3609,19 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>-1474971870</v>
+        <v>-1164818106</v>
       </c>
       <c r="B118" s="3">
-        <v>851451727</v>
+        <v>1006479116</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -3620,19 +3629,19 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>1738261024</v>
+        <v>-1474971870</v>
       </c>
       <c r="B119" s="3">
         <v>851451727</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -3640,19 +3649,19 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>-42607700</v>
+        <v>1738261024</v>
       </c>
       <c r="B120" s="3">
         <v>851451727</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3660,19 +3669,19 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>1915804889</v>
+        <v>-42607700</v>
       </c>
       <c r="B121" s="3">
-        <v>303790042</v>
+        <v>851451727</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3680,19 +3689,19 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>-1999695041</v>
+        <v>1915804889</v>
       </c>
       <c r="B122" s="3">
         <v>303790042</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3700,19 +3709,19 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>-409616100</v>
+        <v>-1999695041</v>
       </c>
       <c r="B123" s="3">
         <v>303790042</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3720,19 +3729,19 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>-1755408102</v>
+        <v>-409616100</v>
       </c>
       <c r="B124" s="3">
         <v>303790042</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3740,19 +3749,19 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>1347112041</v>
+        <v>-1755408102</v>
       </c>
       <c r="B125" s="3">
         <v>303790042</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3760,19 +3769,19 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>528324918</v>
+        <v>1347112041</v>
       </c>
       <c r="B126" s="3">
         <v>303790042</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3780,19 +3789,19 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>368814988</v>
+        <v>528324918</v>
       </c>
       <c r="B127" s="3">
         <v>303790042</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3800,19 +3809,19 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>-1305479403</v>
+        <v>368814988</v>
       </c>
       <c r="B128" s="3">
         <v>303790042</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3820,19 +3829,19 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>-751699408</v>
+        <v>-1305479403</v>
       </c>
       <c r="B129" s="3">
         <v>303790042</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3840,19 +3849,19 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-298004222</v>
+        <v>-751699408</v>
       </c>
       <c r="B130" s="3">
         <v>303790042</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3860,19 +3869,19 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>2063444740</v>
+        <v>-298004222</v>
       </c>
       <c r="B131" s="3">
         <v>303790042</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3880,19 +3889,19 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>546010951</v>
+        <v>2063444740</v>
       </c>
       <c r="B132" s="3">
         <v>303790042</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3900,19 +3909,19 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>-186252357</v>
+        <v>546010951</v>
       </c>
       <c r="B133" s="3">
         <v>303790042</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3920,19 +3929,19 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-1163805379</v>
+        <v>-186252357</v>
       </c>
       <c r="B134" s="3">
         <v>303790042</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3940,19 +3949,19 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>-1446564755</v>
+        <v>-1163805379</v>
       </c>
       <c r="B135" s="3">
         <v>303790042</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3960,19 +3969,19 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>-1998770017</v>
+        <v>-1446564755</v>
       </c>
       <c r="B136" s="3">
         <v>303790042</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3980,19 +3989,19 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>-1526083189</v>
+        <v>-1998770017</v>
       </c>
       <c r="B137" s="3">
         <v>303790042</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -4000,19 +4009,19 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>1893386912</v>
+        <v>-1526083189</v>
       </c>
       <c r="B138" s="3">
         <v>303790042</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -4020,19 +4029,19 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>-741823492</v>
+        <v>1893386912</v>
       </c>
       <c r="B139" s="3">
         <v>303790042</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -4040,19 +4049,19 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>1940323955</v>
+        <v>-741823492</v>
       </c>
       <c r="B140" s="3">
         <v>303790042</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -4060,19 +4069,19 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>-1859099331</v>
+        <v>1940323955</v>
       </c>
       <c r="B141" s="3">
         <v>303790042</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -4080,19 +4089,19 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>-1559092592</v>
+        <v>-1859099331</v>
       </c>
       <c r="B142" s="3">
         <v>303790042</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -4100,19 +4109,19 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>-448009052</v>
+        <v>-1559092592</v>
       </c>
       <c r="B143" s="3">
         <v>303790042</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -4120,19 +4129,19 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>1276775457</v>
+        <v>-448009052</v>
       </c>
       <c r="B144" s="3">
         <v>303790042</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -4140,19 +4149,19 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>1150803779</v>
+        <v>1276775457</v>
       </c>
       <c r="B145" s="3">
         <v>303790042</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -4160,19 +4169,19 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-1320056155</v>
+        <v>1150803779</v>
       </c>
       <c r="B146" s="3">
         <v>303790042</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -4180,19 +4189,19 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-1553084039</v>
+        <v>-1320056155</v>
       </c>
       <c r="B147" s="3">
         <v>303790042</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -4200,19 +4209,19 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>896878296</v>
+        <v>-1553084039</v>
       </c>
       <c r="B148" s="3">
         <v>303790042</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -4220,19 +4229,19 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>-2061382551</v>
+        <v>896878296</v>
       </c>
       <c r="B149" s="3">
         <v>303790042</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -4240,19 +4249,19 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>1413690708</v>
+        <v>-2061382551</v>
       </c>
       <c r="B150" s="3">
         <v>303790042</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -4260,19 +4269,19 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>300428253</v>
+        <v>1413690708</v>
       </c>
       <c r="B151" s="3">
         <v>303790042</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -4280,19 +4289,19 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>395357917</v>
+        <v>300428253</v>
       </c>
       <c r="B152" s="3">
         <v>303790042</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
@@ -4300,19 +4309,19 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>1434374482</v>
+        <v>395357917</v>
       </c>
       <c r="B153" s="3">
         <v>303790042</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -4320,19 +4329,19 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>847719904</v>
+        <v>1434374482</v>
       </c>
       <c r="B154" s="3">
         <v>303790042</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -4340,19 +4349,19 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>2072568</v>
+        <v>847719904</v>
       </c>
       <c r="B155" s="3">
         <v>303790042</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -4360,19 +4369,19 @@
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>27520353</v>
+        <v>2072568</v>
       </c>
       <c r="B156" s="3">
-        <v>779000644</v>
+        <v>303790042</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -4380,19 +4389,19 @@
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>1709039345</v>
+        <v>27520353</v>
       </c>
       <c r="B157" s="3">
         <v>779000644</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -4400,19 +4409,19 @@
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>-1077933149</v>
+        <v>1709039345</v>
       </c>
       <c r="B158" s="3">
         <v>779000644</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -4420,19 +4429,19 @@
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>-1904578880</v>
+        <v>-1077933149</v>
       </c>
       <c r="B159" s="3">
         <v>779000644</v>
       </c>
       <c r="C159" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -4440,19 +4449,19 @@
     </row>
     <row r="160">
       <c r="A160" s="3">
-        <v>1803091076</v>
+        <v>-1904578880</v>
       </c>
       <c r="B160" s="3">
         <v>779000644</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -4460,19 +4469,19 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>-1850715426</v>
+        <v>1803091076</v>
       </c>
       <c r="B161" s="3">
         <v>779000644</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -4480,19 +4489,19 @@
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>1472816115</v>
+        <v>-1850715426</v>
       </c>
       <c r="B162" s="3">
-        <v>1205799434</v>
+        <v>779000644</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -4500,19 +4509,19 @@
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>121024300</v>
+        <v>1472816115</v>
       </c>
       <c r="B163" s="3">
         <v>1205799434</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -4520,19 +4529,19 @@
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>-1053064427</v>
+        <v>121024300</v>
       </c>
       <c r="B164" s="3">
         <v>1205799434</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
@@ -4540,19 +4549,19 @@
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>-849783918</v>
+        <v>-1053064427</v>
       </c>
       <c r="B165" s="3">
         <v>1205799434</v>
       </c>
       <c r="C165" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
@@ -4560,19 +4569,19 @@
     </row>
     <row r="166">
       <c r="A166" s="3">
-        <v>-1607573691</v>
+        <v>-849783918</v>
       </c>
       <c r="B166" s="3">
         <v>1205799434</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
@@ -4580,19 +4589,19 @@
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>-1593909738</v>
+        <v>-1607573691</v>
       </c>
       <c r="B167" s="3">
         <v>1205799434</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
@@ -4600,79 +4609,79 @@
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>-1277009709</v>
+        <v>-1593909738</v>
       </c>
       <c r="B168" s="3">
-        <v>1993197872</v>
+        <v>1205799434</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F168" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>1131209270</v>
+        <v>-1277009709</v>
       </c>
       <c r="B169" s="3">
-        <v>1753185237</v>
+        <v>1993197872</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>239</v>
       </c>
       <c r="F169" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3">
-        <v>623921494</v>
+        <v>1131209270</v>
       </c>
       <c r="B170" s="3">
         <v>1753185237</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F170" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3">
-        <v>-1796692520</v>
+        <v>623921494</v>
       </c>
       <c r="B171" s="3">
-        <v>1553275941</v>
+        <v>1753185237</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F171" s="3">
         <v>15</v>
@@ -4680,19 +4689,19 @@
     </row>
     <row r="172">
       <c r="A172" s="3">
-        <v>597335385</v>
+        <v>-1796692520</v>
       </c>
       <c r="B172" s="3">
-        <v>417181438</v>
+        <v>1553275941</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F172" s="3">
         <v>15</v>
@@ -4700,19 +4709,19 @@
     </row>
     <row r="173">
       <c r="A173" s="3">
-        <v>-1247648687</v>
+        <v>597335385</v>
       </c>
       <c r="B173" s="3">
-        <v>-1422368536</v>
+        <v>417181438</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F173" s="3">
         <v>15</v>
@@ -4720,19 +4729,19 @@
     </row>
     <row r="174">
       <c r="A174" s="3">
-        <v>-770095150</v>
+        <v>-1247648687</v>
       </c>
       <c r="B174" s="3">
-        <v>-41951286</v>
+        <v>-1422368536</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F174" s="3">
         <v>15</v>
@@ -4740,19 +4749,19 @@
     </row>
     <row r="175">
       <c r="A175" s="3">
-        <v>-948994899</v>
+        <v>-770095150</v>
       </c>
       <c r="B175" s="3">
-        <v>498502262</v>
+        <v>-41951286</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F175" s="3">
         <v>15</v>
@@ -4760,39 +4769,39 @@
     </row>
     <row r="176">
       <c r="A176" s="3">
-        <v>-1023799960</v>
+        <v>-948994899</v>
       </c>
       <c r="B176" s="3">
-        <v>2118059982</v>
+        <v>498502262</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F176" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3">
-        <v>-1040212945</v>
+        <v>-1023799960</v>
       </c>
       <c r="B177" s="3">
         <v>2118059982</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F177" s="3">
         <v>26</v>
@@ -4800,19 +4809,19 @@
     </row>
     <row r="178">
       <c r="A178" s="3">
-        <v>1051206834</v>
+        <v>-1040212945</v>
       </c>
       <c r="B178" s="3">
         <v>2118059982</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F178" s="3">
         <v>26</v>
@@ -4820,21 +4829,41 @@
     </row>
     <row r="179">
       <c r="A179" s="3">
+        <v>1051206834</v>
+      </c>
+      <c r="B179" s="3">
+        <v>2118059982</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F179" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3">
         <v>-807250027</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B180" s="3">
         <v>-1278219496</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F179" s="3">
+      <c r="C180" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F180" s="3">
         <v>26</v>
       </c>
     </row>
